--- a/NPC2 HF Ionomycin Nigericin E21.xlsx
+++ b/NPC2 HF Ionomycin Nigericin E21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABFFC5B-4E93-4ACB-B14C-82C69C41FA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CF04532-C5E8-4A54-8862-AEEF4C121205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -148,105 +148,6 @@
     <t>R13_Ratio values</t>
   </si>
   <si>
-    <t>R14_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R14_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R14_Ratio values</t>
-  </si>
-  <si>
-    <t>R15_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R15_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R15_Ratio values</t>
-  </si>
-  <si>
-    <t>R16_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R16_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R16_Ratio values</t>
-  </si>
-  <si>
-    <t>R17_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R17_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R17_Ratio values</t>
-  </si>
-  <si>
-    <t>R18_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R18_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R18_Ratio values</t>
-  </si>
-  <si>
-    <t>R19_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R19_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R19_Ratio values</t>
-  </si>
-  <si>
-    <t>R20_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R20_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R20_Ratio values</t>
-  </si>
-  <si>
-    <t>R21_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R21_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R21_Ratio values</t>
-  </si>
-  <si>
-    <t>R22_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R22_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R22_Ratio values</t>
-  </si>
-  <si>
-    <t>R23_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R23_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R23_Ratio values</t>
-  </si>
-  <si>
-    <t>R24_Fura-2(340)</t>
-  </si>
-  <si>
-    <t>R24_Fura-2(380)</t>
-  </si>
-  <si>
-    <t>R24_Ratio values</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -304,8 +205,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -717,18 +618,17 @@
   <dimension ref="A1:CI738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="AQ1" sqref="AQ1:BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1"/>
-    <col min="2" max="2" width="10" style="2"/>
-    <col min="4" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,115 +755,16 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>1.1574069503694773E-5</v>
+      <c r="B2" s="4">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>293.09243800000002</v>
@@ -1083,15 +884,15 @@
         <v>0.36720799999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>2.3148139007389545E-5</v>
+      <c r="B3" s="4">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>291.71408100000002</v>
@@ -1211,15 +1012,15 @@
         <v>0.36502600000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>3.4722208511084318E-5</v>
+      <c r="B4" s="4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>291.07476800000001</v>
@@ -1339,15 +1140,15 @@
         <v>0.36514999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>4.6296307118609548E-5</v>
+      <c r="B5" s="4">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>290.44699100000003</v>
@@ -1467,15 +1268,15 @@
         <v>0.36431799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>4.6296307118609548E-5</v>
+      <c r="B6" s="4">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>289.00579800000003</v>
@@ -1595,15 +1396,15 @@
         <v>0.362904</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>5.787037662230432E-5</v>
+      <c r="B7" s="4">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>289.62640399999998</v>
@@ -1723,15 +1524,15 @@
         <v>0.36363899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>6.9444446125999093E-5</v>
+      <c r="B8" s="4">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>289.33667000000003</v>
@@ -1851,15 +1652,15 @@
         <v>0.36319099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>8.1018515629693866E-5</v>
+      <c r="B9" s="4">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>289.35192899999998</v>
@@ -1979,15 +1780,15 @@
         <v>0.36441499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>9.2592585133388638E-5</v>
+      <c r="B10" s="4">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>289.13754299999999</v>
@@ -2107,15 +1908,15 @@
         <v>0.36427599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>1.0416665463708341E-4</v>
+      <c r="B11" s="4">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>288.71386699999999</v>
@@ -2235,15 +2036,15 @@
         <v>0.36374400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>1.1574075324460864E-4</v>
+      <c r="B12" s="4">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>288.71975700000002</v>
@@ -2363,15 +2164,15 @@
         <v>0.36276700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>1.2731482274830341E-4</v>
+      <c r="B13" s="4">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>288.002228</v>
@@ -2491,15 +2292,15 @@
         <v>0.362039</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>1.3888889225199819E-4</v>
+      <c r="B14" s="4">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>287.64907799999997</v>
@@ -2619,15 +2420,15 @@
         <v>0.36263400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>1.5046296175569296E-4</v>
+      <c r="B15" s="4">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>287.16476399999999</v>
@@ -2747,15 +2548,15 @@
         <v>0.36131000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
-        <v>1.6203703125938773E-4</v>
+      <c r="B16" s="4">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>287.11230499999999</v>
@@ -2879,11 +2680,11 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>1.736111007630825E-4</v>
+      <c r="B17" s="4">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>286.77484099999998</v>
@@ -3007,11 +2808,11 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
-        <v>1.8518519937060773E-4</v>
+      <c r="B18" s="4">
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>286.252228</v>
@@ -3135,11 +2936,11 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>1.9675926887430251E-4</v>
+      <c r="B19" s="4">
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>286.04055799999998</v>
@@ -3263,11 +3064,11 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
-        <v>2.0833333837799728E-4</v>
+      <c r="B20" s="4">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>286.08373999999998</v>
@@ -3391,11 +3192,11 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>2.1990740788169205E-4</v>
+      <c r="B21" s="4">
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>285.75604199999998</v>
@@ -3519,11 +3320,11 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
-        <v>2.3148147738538682E-4</v>
+      <c r="B22" s="4">
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>284.67901599999999</v>
@@ -3647,11 +3448,11 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>2.430555468890816E-4</v>
+      <c r="B23" s="4">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>284.43676799999997</v>
@@ -3775,11 +3576,11 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
-        <v>2.5462961639277637E-4</v>
+      <c r="B24" s="4">
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>283.96417200000002</v>
@@ -3903,11 +3704,11 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>2.662037150003016E-4</v>
+      <c r="B25" s="4">
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>283.952789</v>
@@ -4031,11 +3832,11 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
-        <v>2.7777778450399637E-4</v>
+      <c r="B26" s="4">
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>283.46523999999999</v>
@@ -4159,11 +3960,11 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>2.8935185400769114E-4</v>
+      <c r="B27" s="4">
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>283.11617999999999</v>
@@ -4287,11 +4088,11 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
-        <v>3.0092592351138592E-4</v>
+      <c r="B28" s="4">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>282.94695999999999</v>
@@ -4415,11 +4216,11 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>3.1249999301508069E-4</v>
+      <c r="B29" s="4">
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>282.83251999999999</v>
@@ -4543,11 +4344,11 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
-        <v>3.2407406251877546E-4</v>
+      <c r="B30" s="4">
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>282.30905200000001</v>
@@ -4671,11 +4472,11 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>3.3564816112630069E-4</v>
+      <c r="B31" s="4">
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>282.23831200000001</v>
@@ -4799,11 +4600,11 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
-        <v>3.4722223062999547E-4</v>
+      <c r="B32" s="4">
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>282.01956200000001</v>
@@ -4927,11 +4728,11 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>3.5879630013369024E-4</v>
+      <c r="B33" s="4">
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>281.77029399999998</v>
@@ -5055,11 +4856,11 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
-        <v>3.7037036963738501E-4</v>
+      <c r="B34" s="4">
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>281.17507899999998</v>
@@ -5183,11 +4984,11 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>3.8194443914107978E-4</v>
+      <c r="B35" s="4">
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>281.151093</v>
@@ -5311,11 +5112,11 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
-        <v>3.9351850864477456E-4</v>
+      <c r="B36" s="4">
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>280.88305700000001</v>
@@ -5439,11 +5240,11 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>4.0509257814846933E-4</v>
+      <c r="B37" s="4">
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>280.41177399999998</v>
@@ -5567,11 +5368,11 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
-        <v>4.1666667675599456E-4</v>
+      <c r="B38" s="4">
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>280.42044099999998</v>
@@ -5695,11 +5496,11 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>4.2824074625968933E-4</v>
+      <c r="B39" s="4">
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>280.00054899999998</v>
@@ -5823,11 +5624,11 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
-        <v>4.398148157633841E-4</v>
+      <c r="B40" s="4">
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D40">
         <v>279.67962599999998</v>
@@ -5951,11 +5752,11 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>4.5138888526707888E-4</v>
+      <c r="B41" s="4">
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>279.531342</v>
@@ -6079,11 +5880,11 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
-        <v>4.6296295477077365E-4</v>
+      <c r="B42" s="4">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>279.23968500000001</v>
@@ -6207,11 +6008,11 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>4.7453702427446842E-4</v>
+      <c r="B43" s="4">
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>278.97430400000002</v>
@@ -6335,11 +6136,11 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
-        <v>4.8611112288199365E-4</v>
+      <c r="B44" s="4">
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <v>278.61007699999999</v>
@@ -6463,11 +6264,11 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>4.9768519238568842E-4</v>
+      <c r="B45" s="4">
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>278.17663599999997</v>
@@ -6591,11 +6392,11 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
-        <v>5.092592618893832E-4</v>
+      <c r="B46" s="4">
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D46">
         <v>277.837311</v>
@@ -6719,11 +6520,11 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>5.2083333139307797E-4</v>
+      <c r="B47" s="4">
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>277.40466300000003</v>
@@ -6847,11 +6648,11 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="5">
-        <v>5.3240740089677274E-4</v>
+      <c r="B48" s="4">
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>276.99792500000001</v>
@@ -6975,11 +6776,11 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>5.4398147040046751E-4</v>
+      <c r="B49" s="4">
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <v>276.73553500000003</v>
@@ -7103,11 +6904,11 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="5">
-        <v>5.5555556900799274E-4</v>
+      <c r="B50" s="4">
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <v>276.13330100000002</v>
@@ -7231,11 +7032,11 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>5.6712963851168752E-4</v>
+      <c r="B51" s="4">
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>275.49188199999998</v>
@@ -7359,11 +7160,11 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
-        <v>5.7870370801538229E-4</v>
+      <c r="B52" s="4">
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <v>275.38034099999999</v>
@@ -7487,11 +7288,11 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>5.9027777751907706E-4</v>
+      <c r="B53" s="4">
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D53">
         <v>275.54614299999997</v>
@@ -7615,11 +7416,11 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="5">
-        <v>6.0185184702277184E-4</v>
+      <c r="B54" s="4">
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D54">
         <v>275.811218</v>
@@ -7743,11 +7544,11 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>6.1342591652646661E-4</v>
+      <c r="B55" s="4">
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <v>276.61322000000001</v>
@@ -7871,11 +7672,11 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
-        <v>6.2499998603016138E-4</v>
+      <c r="B56" s="4">
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D56">
         <v>279.82678199999998</v>
@@ -7999,11 +7800,11 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>6.3657408463768661E-4</v>
+      <c r="B57" s="4">
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D57">
         <v>283.07223499999998</v>
@@ -8127,11 +7928,11 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
-        <v>6.4814815414138138E-4</v>
+      <c r="B58" s="4">
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D58">
         <v>287.410461</v>
@@ -8255,11 +8056,11 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>6.5972222364507616E-4</v>
+      <c r="B59" s="4">
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>291.62423699999999</v>
@@ -8383,11 +8184,11 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="5">
-        <v>6.7129629314877093E-4</v>
+      <c r="B60" s="4">
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D60">
         <v>295.855591</v>
@@ -8511,11 +8312,11 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>6.828703626524657E-4</v>
+      <c r="B61" s="4">
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D61">
         <v>299.03808600000002</v>
@@ -8639,11 +8440,11 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="5">
-        <v>6.9444443215616047E-4</v>
+      <c r="B62" s="4">
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D62">
         <v>301.27212500000002</v>
@@ -8767,11 +8568,11 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>7.060185307636857E-4</v>
+      <c r="B63" s="4">
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D63">
         <v>303.16153000000003</v>
@@ -8895,11 +8696,11 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="5">
-        <v>7.1759260026738048E-4</v>
+      <c r="B64" s="4">
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>304.58984400000003</v>
@@ -9023,11 +8824,11 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>7.2916666977107525E-4</v>
+      <c r="B65" s="4">
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D65">
         <v>306.15362499999998</v>
@@ -9151,11 +8952,11 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="5">
-        <v>7.4074073927477002E-4</v>
+      <c r="B66" s="4">
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D66">
         <v>307.00363199999998</v>
@@ -9279,11 +9080,11 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>7.5231480877846479E-4</v>
+      <c r="B67" s="4">
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>307.92413299999998</v>
@@ -9407,11 +9208,11 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="5">
-        <v>7.6388887828215957E-4</v>
+      <c r="B68" s="4">
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D68">
         <v>308.168091</v>
@@ -9535,11 +9336,11 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="5">
-        <v>7.754629768896848E-4</v>
+      <c r="B69" s="4">
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D69">
         <v>308.49874899999998</v>
@@ -9663,11 +9464,11 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="5">
-        <v>7.8703704639337957E-4</v>
+      <c r="B70" s="4">
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D70">
         <v>309.04394500000001</v>
@@ -9791,11 +9592,11 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="5">
-        <v>7.9861111589707434E-4</v>
+      <c r="B71" s="4">
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D71">
         <v>309.216339</v>
@@ -9919,11 +9720,11 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="5">
-        <v>8.1018518540076911E-4</v>
+      <c r="B72" s="4">
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D72">
         <v>309.81967200000003</v>
@@ -10047,11 +9848,11 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="5">
-        <v>8.2175925490446389E-4</v>
+      <c r="B73" s="4">
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D73">
         <v>309.37399299999998</v>
@@ -10175,11 +9976,11 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="5">
-        <v>8.3333332440815866E-4</v>
+      <c r="B74" s="4">
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D74">
         <v>309.21743800000002</v>
@@ -10303,11 +10104,11 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="5">
-        <v>8.4490739391185343E-4</v>
+      <c r="B75" s="4">
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D75">
         <v>309.01882899999998</v>
@@ -10431,11 +10232,11 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="5">
-        <v>8.5648149251937866E-4</v>
+      <c r="B76" s="4">
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D76">
         <v>308.802887</v>
@@ -10559,11 +10360,11 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="5">
-        <v>8.6805556202307343E-4</v>
+      <c r="B77" s="4">
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D77">
         <v>308.57074</v>
@@ -10687,11 +10488,11 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="5">
-        <v>8.7962963152676821E-4</v>
+      <c r="B78" s="4">
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D78">
         <v>308.52200299999998</v>
@@ -10815,11 +10616,11 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="5">
-        <v>8.9120370103046298E-4</v>
+      <c r="B79" s="4">
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <v>308.13235500000002</v>
@@ -10943,11 +10744,11 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="5">
-        <v>9.0277777053415775E-4</v>
+      <c r="B80" s="4">
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D80">
         <v>308.194366</v>
@@ -11071,11 +10872,11 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="5">
-        <v>9.1435184003785253E-4</v>
+      <c r="B81" s="4">
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D81">
         <v>307.465149</v>
@@ -11199,11 +11000,11 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="5">
-        <v>9.2592593864537776E-4</v>
+      <c r="B82" s="4">
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D82">
         <v>307.61920199999997</v>
@@ -11327,11 +11128,11 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="5">
-        <v>9.3750000814907253E-4</v>
+      <c r="B83" s="4">
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D83">
         <v>307.21850599999999</v>
@@ -11455,11 +11256,11 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="5">
-        <v>9.490740776527673E-4</v>
+      <c r="B84" s="4">
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D84">
         <v>306.786316</v>
@@ -11583,11 +11384,11 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="5">
-        <v>9.6064814715646207E-4</v>
+      <c r="B85" s="4">
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D85">
         <v>306.78149400000001</v>
@@ -11711,11 +11512,11 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="5">
-        <v>9.7222221666015685E-4</v>
+      <c r="B86" s="4">
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D86">
         <v>306.03112800000002</v>
@@ -11839,11 +11640,11 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="5">
-        <v>9.8379628616385162E-4</v>
+      <c r="B87" s="4">
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D87">
         <v>305.622772</v>
@@ -11967,11 +11768,11 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="5">
-        <v>9.9537038477137685E-4</v>
+      <c r="B88" s="4">
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D88">
         <v>305.199524</v>
@@ -12095,11 +11896,11 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="5">
-        <v>1.0069444542750716E-3</v>
+      <c r="B89" s="4">
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D89">
         <v>304.73852499999998</v>
@@ -12223,11 +12024,11 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="5">
-        <v>1.0185185237787664E-3</v>
+      <c r="B90" s="4">
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D90">
         <v>304.49618500000003</v>
@@ -12351,11 +12152,11 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="5">
-        <v>1.0300925932824612E-3</v>
+      <c r="B91" s="4">
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D91">
         <v>303.82931500000001</v>
@@ -12479,11 +12280,11 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="5">
-        <v>1.0416666627861559E-3</v>
+      <c r="B92" s="4">
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <v>303.346497</v>
@@ -12607,11 +12408,11 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="5">
-        <v>1.0532407322898507E-3</v>
+      <c r="B93" s="4">
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D93">
         <v>302.97345000000001</v>
@@ -12735,11 +12536,11 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="5">
-        <v>1.0648148017935455E-3</v>
+      <c r="B94" s="4">
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D94">
         <v>302.47345000000001</v>
@@ -12863,11 +12664,11 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="5">
-        <v>1.0763889004010707E-3</v>
+      <c r="B95" s="4">
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D95">
         <v>302.00613399999997</v>
@@ -12991,11 +12792,11 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="5">
-        <v>1.0879629699047655E-3</v>
+      <c r="B96" s="4">
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D96">
         <v>301.37307700000002</v>
@@ -13119,11 +12920,11 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="5">
-        <v>1.0995370394084603E-3</v>
+      <c r="B97" s="4">
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D97">
         <v>300.83288599999997</v>
@@ -13247,11 +13048,11 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="5">
-        <v>1.111111108912155E-3</v>
+      <c r="B98" s="4">
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D98">
         <v>300.01348899999999</v>
@@ -13375,11 +13176,11 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="5">
-        <v>1.1226851784158498E-3</v>
+      <c r="B99" s="4">
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D99">
         <v>299.61795000000001</v>
@@ -13503,11 +13304,11 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="5">
-        <v>1.1342592479195446E-3</v>
+      <c r="B100" s="4">
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D100">
         <v>298.85745200000002</v>
@@ -13631,11 +13432,11 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="5">
-        <v>1.1458333465270698E-3</v>
+      <c r="B101" s="4">
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D101">
         <v>298.14675899999997</v>
@@ -13759,11 +13560,11 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="5">
-        <v>1.1574074160307646E-3</v>
+      <c r="B102" s="4">
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D102">
         <v>297.57894900000002</v>
@@ -13887,11 +13688,11 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="5">
-        <v>1.1689814855344594E-3</v>
+      <c r="B103" s="4">
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D103">
         <v>296.87872299999998</v>
@@ -14015,11 +13816,11 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="5">
-        <v>1.1805555550381541E-3</v>
+      <c r="B104" s="4">
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D104">
         <v>295.89691199999999</v>
@@ -14143,11 +13944,11 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="5">
-        <v>1.1921296245418489E-3</v>
+      <c r="B105" s="4">
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D105">
         <v>295.47323599999999</v>
@@ -14271,11 +14072,11 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="5">
-        <v>1.2037036940455437E-3</v>
+      <c r="B106" s="4">
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D106">
         <v>294.61346400000002</v>
@@ -14399,11 +14200,11 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="5">
-        <v>1.2152777635492384E-3</v>
+      <c r="B107" s="4">
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D107">
         <v>293.63458300000002</v>
@@ -14527,11 +14328,11 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="5">
-        <v>1.2268518621567637E-3</v>
+      <c r="B108" s="4">
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D108">
         <v>292.922211</v>
@@ -14655,11 +14456,11 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="5">
-        <v>1.2384259316604584E-3</v>
+      <c r="B109" s="4">
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D109">
         <v>292.08017000000001</v>
@@ -14783,11 +14584,11 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="5">
-        <v>1.2500000011641532E-3</v>
+      <c r="B110" s="4">
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D110">
         <v>291.45980800000001</v>
@@ -14911,11 +14712,11 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="5">
-        <v>1.261574070667848E-3</v>
+      <c r="B111" s="4">
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D111">
         <v>290.81356799999998</v>
@@ -15039,11 +14840,11 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="5">
-        <v>1.2731481401715428E-3</v>
+      <c r="B112" s="4">
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D112">
         <v>289.86773699999998</v>
@@ -15167,11 +14968,11 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="5">
-        <v>1.2847222096752375E-3</v>
+      <c r="B113" s="4">
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D113">
         <v>289.26965300000001</v>
@@ -15295,11 +15096,11 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="5">
-        <v>1.2962963082827628E-3</v>
+      <c r="B114" s="4">
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D114">
         <v>288.41702299999997</v>
@@ -15423,11 +15224,11 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="5">
-        <v>1.3078703777864575E-3</v>
+      <c r="B115" s="4">
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D115">
         <v>287.66888399999999</v>
@@ -15551,11 +15352,11 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="5">
-        <v>1.3194444472901523E-3</v>
+      <c r="B116" s="4">
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D116">
         <v>287.127411</v>
@@ -15679,11 +15480,11 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="5">
-        <v>1.3310185167938471E-3</v>
+      <c r="B117" s="4">
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D117">
         <v>286.45455900000002</v>
@@ -15807,11 +15608,11 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="5">
-        <v>1.3425925862975419E-3</v>
+      <c r="B118" s="4">
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D118">
         <v>285.649475</v>
@@ -15935,11 +15736,11 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="5">
-        <v>1.3541666558012366E-3</v>
+      <c r="B119" s="4">
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D119">
         <v>284.825714</v>
@@ -16063,11 +15864,11 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="5">
-        <v>1.3657407544087619E-3</v>
+      <c r="B120" s="4">
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D120">
         <v>284.47753899999998</v>
@@ -16191,11 +15992,11 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="5">
-        <v>1.3773148239124566E-3</v>
+      <c r="B121" s="4">
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D121">
         <v>283.40768400000002</v>
@@ -16319,11 +16120,11 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="5">
-        <v>1.3888888934161514E-3</v>
+      <c r="B122" s="4">
+        <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D122">
         <v>282.88931300000002</v>
@@ -16447,11 +16248,11 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="5">
-        <v>1.4004629629198462E-3</v>
+      <c r="B123" s="4">
+        <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D123">
         <v>282.08862299999998</v>
@@ -16575,11 +16376,11 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="5">
-        <v>1.4120370324235409E-3</v>
+      <c r="B124" s="4">
+        <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D124">
         <v>281.26950099999999</v>
@@ -16703,11 +16504,11 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="5">
-        <v>1.4236111019272357E-3</v>
+      <c r="B125" s="4">
+        <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D125">
         <v>280.70980800000001</v>
@@ -16831,11 +16632,11 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="5">
-        <v>1.4351851714309305E-3</v>
+      <c r="B126" s="4">
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D126">
         <v>280.24529999999999</v>
@@ -16959,11 +16760,11 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="5">
-        <v>1.4467592700384557E-3</v>
+      <c r="B127" s="4">
+        <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D127">
         <v>279.25814800000001</v>
@@ -17087,11 +16888,11 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="5">
-        <v>1.4583333395421505E-3</v>
+      <c r="B128" s="4">
+        <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D128">
         <v>278.83492999999999</v>
@@ -17215,11 +17016,11 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="5">
-        <v>1.4699074090458453E-3</v>
+      <c r="B129" s="4">
+        <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D129">
         <v>277.76144399999998</v>
@@ -17343,11 +17144,11 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="5">
-        <v>1.48148147854954E-3</v>
+      <c r="B130" s="4">
+        <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D130">
         <v>277.48187300000001</v>
@@ -17471,11 +17272,11 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="5">
-        <v>1.4930555480532348E-3</v>
+      <c r="B131" s="4">
+        <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D131">
         <v>277.32656900000001</v>
@@ -17599,11 +17400,11 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="5">
-        <v>1.5046296175569296E-3</v>
+      <c r="B132" s="4">
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D132">
         <v>277.06545999999997</v>
@@ -17727,11 +17528,11 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="5">
-        <v>1.5162037161644548E-3</v>
+      <c r="B133" s="4">
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D133">
         <v>276.28164700000002</v>
@@ -17855,11 +17656,11 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="5">
-        <v>1.5277777856681496E-3</v>
+      <c r="B134" s="4">
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D134">
         <v>275.62570199999999</v>
@@ -17983,11 +17784,11 @@
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="5">
-        <v>1.5393518551718444E-3</v>
+      <c r="B135" s="4">
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D135">
         <v>275.072205</v>
@@ -18111,11 +17912,11 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="5">
-        <v>1.5509259246755391E-3</v>
+      <c r="B136" s="4">
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D136">
         <v>274.700378</v>
@@ -18239,11 +18040,11 @@
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="5">
-        <v>1.5624999941792339E-3</v>
+      <c r="B137" s="4">
+        <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D137">
         <v>274.38436899999999</v>
@@ -18367,11 +18168,11 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="5">
-        <v>1.5740740636829287E-3</v>
+      <c r="B138" s="4">
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D138">
         <v>273.78268400000002</v>
@@ -18495,11 +18296,11 @@
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="5">
-        <v>1.5856481622904539E-3</v>
+      <c r="B139" s="4">
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D139">
         <v>273.045502</v>
@@ -18623,11 +18424,11 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="5">
-        <v>1.5972222317941487E-3</v>
+      <c r="B140" s="4">
+        <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D140">
         <v>272.77865600000001</v>
@@ -18751,11 +18552,11 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="5">
-        <v>1.6087963012978435E-3</v>
+      <c r="B141" s="4">
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D141">
         <v>272.29092400000002</v>
@@ -18879,11 +18680,11 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="5">
-        <v>1.6203703708015382E-3</v>
+      <c r="B142" s="4">
+        <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D142">
         <v>271.88360599999999</v>
@@ -19007,11 +18808,11 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="5">
-        <v>1.631944440305233E-3</v>
+      <c r="B143" s="4">
+        <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D143">
         <v>271.56726099999997</v>
@@ -19135,11 +18936,11 @@
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="5">
-        <v>1.6435185098089278E-3</v>
+      <c r="B144" s="4">
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D144">
         <v>270.98135400000001</v>
@@ -19263,11 +19064,11 @@
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="5">
-        <v>1.6550925793126225E-3</v>
+      <c r="B145" s="4">
+        <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D145">
         <v>270.46673600000003</v>
@@ -19391,11 +19192,11 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="5">
-        <v>1.6666666779201478E-3</v>
+      <c r="B146" s="4">
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D146">
         <v>270.128265</v>
@@ -19519,11 +19320,11 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="5">
-        <v>1.6782407474238425E-3</v>
+      <c r="B147" s="4">
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D147">
         <v>269.79351800000001</v>
@@ -19647,11 +19448,11 @@
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="5">
-        <v>1.6898148169275373E-3</v>
+      <c r="B148" s="4">
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D148">
         <v>269.02993800000002</v>
@@ -19775,11 +19576,11 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="5">
-        <v>1.7013888864312321E-3</v>
+      <c r="B149" s="4">
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D149">
         <v>268.55767800000001</v>
@@ -19903,11 +19704,11 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="5">
-        <v>1.7129629559349269E-3</v>
+      <c r="B150" s="4">
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D150">
         <v>268.22872899999999</v>
@@ -20031,11 +19832,11 @@
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="5">
-        <v>1.7245370254386216E-3</v>
+      <c r="B151" s="4">
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D151">
         <v>267.23074300000002</v>
@@ -20159,11 +19960,11 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="5">
-        <v>1.7361111240461469E-3</v>
+      <c r="B152" s="4">
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D152">
         <v>266.86587500000002</v>
@@ -20287,11 +20088,11 @@
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="5">
-        <v>1.7476851935498416E-3</v>
+      <c r="B153" s="4">
+        <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D153">
         <v>266.48745700000001</v>
@@ -20415,11 +20216,11 @@
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="5">
-        <v>1.7592592630535364E-3</v>
+      <c r="B154" s="4">
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D154">
         <v>266.38790899999998</v>
@@ -20543,11 +20344,11 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="5">
-        <v>1.7708333325572312E-3</v>
+      <c r="B155" s="4">
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D155">
         <v>265.84002700000002</v>
@@ -20671,11 +20472,11 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="5">
-        <v>1.782407402060926E-3</v>
+      <c r="B156" s="4">
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D156">
         <v>265.48724399999998</v>
@@ -20799,11 +20600,11 @@
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="5">
-        <v>1.7939814715646207E-3</v>
+      <c r="B157" s="4">
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D157">
         <v>265.063446</v>
@@ -20927,11 +20728,11 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="5">
-        <v>1.8055555410683155E-3</v>
+      <c r="B158" s="4">
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D158">
         <v>264.60702500000002</v>
@@ -21055,11 +20856,11 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="5">
-        <v>1.8171296396758407E-3</v>
+      <c r="B159" s="4">
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D159">
         <v>263.88125600000001</v>
@@ -21183,11 +20984,11 @@
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="5">
-        <v>1.8287037091795355E-3</v>
+      <c r="B160" s="4">
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D160">
         <v>261.55789199999998</v>
@@ -21311,11 +21112,11 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="5">
-        <v>1.8402777786832303E-3</v>
+      <c r="B161" s="4">
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D161">
         <v>261.70285000000001</v>
@@ -21439,11 +21240,11 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="5">
-        <v>1.8518518481869251E-3</v>
+      <c r="B162" s="4">
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D162">
         <v>261.36361699999998</v>
@@ -21567,11 +21368,11 @@
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="5">
-        <v>1.8634259176906198E-3</v>
+      <c r="B163" s="4">
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D163">
         <v>260.75424199999998</v>
@@ -21695,11 +21496,11 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="5">
-        <v>1.8749999871943146E-3</v>
+      <c r="B164" s="4">
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D164">
         <v>260.889252</v>
@@ -21823,11 +21624,11 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="5">
-        <v>1.8865740858018398E-3</v>
+      <c r="B165" s="4">
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D165">
         <v>260.419983</v>
@@ -21951,11 +21752,11 @@
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="5">
-        <v>1.8981481553055346E-3</v>
+      <c r="B166" s="4">
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D166">
         <v>260.40438799999998</v>
@@ -22079,11 +21880,11 @@
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="5">
-        <v>1.9097222248092294E-3</v>
+      <c r="B167" s="4">
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D167">
         <v>260.26525900000001</v>
@@ -22207,11 +22008,11 @@
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="5">
-        <v>1.9212962943129241E-3</v>
+      <c r="B168" s="4">
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D168">
         <v>259.55264299999999</v>
@@ -22335,11 +22136,11 @@
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="5">
-        <v>1.9328703638166189E-3</v>
+      <c r="B169" s="4">
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D169">
         <v>259.50292999999999</v>
@@ -22463,11 +22264,11 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="5">
-        <v>1.9444444333203137E-3</v>
+      <c r="B170" s="4">
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D170">
         <v>259.06066900000002</v>
@@ -22591,11 +22392,11 @@
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="5">
-        <v>1.9560185319278389E-3</v>
+      <c r="B171" s="4">
+        <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D171">
         <v>259.00439499999999</v>
@@ -22719,11 +22520,11 @@
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="5">
-        <v>1.9675926014315337E-3</v>
+      <c r="B172" s="4">
+        <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D172">
         <v>258.99575800000002</v>
@@ -22847,11 +22648,11 @@
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="5">
-        <v>1.9791666709352285E-3</v>
+      <c r="B173" s="4">
+        <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D173">
         <v>258.68035900000001</v>
@@ -22975,11 +22776,11 @@
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="5">
-        <v>1.9907407404389232E-3</v>
+      <c r="B174" s="4">
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D174">
         <v>258.697205</v>
@@ -23103,11 +22904,11 @@
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="5">
-        <v>2.002314809942618E-3</v>
+      <c r="B175" s="4">
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D175">
         <v>258.62075800000002</v>
@@ -23231,11 +23032,11 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="5">
-        <v>2.0138888794463128E-3</v>
+      <c r="B176" s="4">
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D176">
         <v>258.72143599999998</v>
@@ -23359,11 +23160,11 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="5">
-        <v>2.0254629489500076E-3</v>
+      <c r="B177" s="4">
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D177">
         <v>258.79534899999999</v>
@@ -23487,11 +23288,11 @@
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="5">
-        <v>2.0370370475575328E-3</v>
+      <c r="B178" s="4">
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D178">
         <v>258.40518200000002</v>
@@ -23615,11 +23416,11 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="5">
-        <v>2.0486111170612276E-3</v>
+      <c r="B179" s="4">
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D179">
         <v>258.45675699999998</v>
@@ -23743,11 +23544,11 @@
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="5">
-        <v>2.0601851865649223E-3</v>
+      <c r="B180" s="4">
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D180">
         <v>258.34982300000001</v>
@@ -23871,11 +23672,11 @@
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="5">
-        <v>2.0717592560686171E-3</v>
+      <c r="B181" s="4">
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D181">
         <v>258.062836</v>
@@ -23999,11 +23800,11 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="5">
-        <v>2.0833333255723119E-3</v>
+      <c r="B182" s="4">
+        <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D182">
         <v>257.93454000000003</v>
@@ -24127,11 +23928,11 @@
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="5">
-        <v>2.0949073950760067E-3</v>
+      <c r="B183" s="4">
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D183">
         <v>258.13095099999998</v>
@@ -24255,11 +24056,11 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="5">
-        <v>2.1064814936835319E-3</v>
+      <c r="B184" s="4">
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D184">
         <v>258.09069799999997</v>
@@ -24383,11 +24184,11 @@
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="5">
-        <v>2.1180555631872267E-3</v>
+      <c r="B185" s="4">
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D185">
         <v>257.75216699999999</v>
@@ -24511,11 +24312,11 @@
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="5">
-        <v>2.1296296326909214E-3</v>
+      <c r="B186" s="4">
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D186">
         <v>257.54705799999999</v>
@@ -24639,11 +24440,11 @@
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="5">
-        <v>2.1412037021946162E-3</v>
+      <c r="B187" s="4">
+        <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D187">
         <v>257.63467400000002</v>
@@ -24767,11 +24568,11 @@
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="5">
-        <v>2.152777771698311E-3</v>
+      <c r="B188" s="4">
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D188">
         <v>257.37066700000003</v>
@@ -24895,11 +24696,11 @@
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="5">
-        <v>2.1643518412020057E-3</v>
+      <c r="B189" s="4">
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D189">
         <v>257.08654799999999</v>
@@ -25023,11 +24824,11 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="5">
-        <v>2.175925939809531E-3</v>
+      <c r="B190" s="4">
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D190">
         <v>256.759277</v>
@@ -25151,11 +24952,11 @@
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="5">
-        <v>2.1875000093132257E-3</v>
+      <c r="B191" s="4">
+        <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D191">
         <v>256.56625400000001</v>
@@ -25279,11 +25080,11 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="5">
-        <v>2.1990740788169205E-3</v>
+      <c r="B192" s="4">
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D192">
         <v>256.20742799999999</v>
@@ -25407,11 +25208,11 @@
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="5">
-        <v>2.2106481483206153E-3</v>
+      <c r="B193" s="4">
+        <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D193">
         <v>256.46725500000002</v>
@@ -25535,11 +25336,11 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="5">
-        <v>2.2222222178243101E-3</v>
+      <c r="B194" s="4">
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D194">
         <v>255.85836800000001</v>
@@ -25663,11 +25464,11 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="5">
-        <v>2.2337962873280048E-3</v>
+      <c r="B195" s="4">
+        <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D195">
         <v>255.89257799999999</v>
@@ -25791,11 +25592,11 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="5">
-        <v>2.2453703568316996E-3</v>
+      <c r="B196" s="4">
+        <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D196">
         <v>255.814697</v>
@@ -25919,11 +25720,11 @@
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="5">
-        <v>2.2569444554392248E-3</v>
+      <c r="B197" s="4">
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D197">
         <v>255.525238</v>
@@ -26047,11 +25848,11 @@
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="5">
-        <v>2.2685185249429196E-3</v>
+      <c r="B198" s="4">
+        <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D198">
         <v>255.49542199999999</v>
@@ -26175,11 +25976,11 @@
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="5">
-        <v>2.2800925944466144E-3</v>
+      <c r="B199" s="4">
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D199">
         <v>254.955566</v>
@@ -26303,11 +26104,11 @@
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="5">
-        <v>2.2916666639503092E-3</v>
+      <c r="B200" s="4">
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D200">
         <v>254.87248199999999</v>
@@ -26431,11 +26232,11 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="5">
-        <v>2.3032407334540039E-3</v>
+      <c r="B201" s="4">
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D201">
         <v>254.54101600000001</v>
@@ -26559,11 +26360,11 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="5">
-        <v>2.3148148029576987E-3</v>
+      <c r="B202" s="4">
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D202">
         <v>254.17453</v>
@@ -26687,11 +26488,11 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="5">
-        <v>2.3263889015652239E-3</v>
+      <c r="B203" s="4">
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D203">
         <v>254.017731</v>
@@ -26815,11 +26616,11 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="5">
-        <v>2.3379629710689187E-3</v>
+      <c r="B204" s="4">
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D204">
         <v>253.77630600000001</v>
@@ -26943,11 +26744,11 @@
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="5">
-        <v>2.3495370405726135E-3</v>
+      <c r="B205" s="4">
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D205">
         <v>253.774689</v>
@@ -27071,11 +26872,11 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="5">
-        <v>2.3611111100763083E-3</v>
+      <c r="B206" s="4">
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D206">
         <v>253.29045099999999</v>
@@ -27199,11 +27000,11 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="5">
-        <v>2.372685179580003E-3</v>
+      <c r="B207" s="4">
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D207">
         <v>253.24063100000001</v>
@@ -27327,11 +27128,11 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="5">
-        <v>2.3842592490836978E-3</v>
+      <c r="B208" s="4">
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D208">
         <v>252.92411799999999</v>
@@ -27455,11 +27256,11 @@
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="5">
-        <v>2.395833347691223E-3</v>
+      <c r="B209" s="4">
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D209">
         <v>252.679565</v>
@@ -27583,11 +27384,11 @@
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="5">
-        <v>2.4074074171949178E-3</v>
+      <c r="B210" s="4">
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D210">
         <v>252.30960099999999</v>
@@ -27711,11 +27512,11 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="5">
-        <v>2.4189814866986126E-3</v>
+      <c r="B211" s="4">
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D211">
         <v>251.933289</v>
@@ -27839,11 +27640,11 @@
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="5">
-        <v>2.4305555562023073E-3</v>
+      <c r="B212" s="4">
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D212">
         <v>252.05069</v>
@@ -27967,11 +27768,11 @@
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="5">
-        <v>2.4421296257060021E-3</v>
+      <c r="B213" s="4">
+        <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D213">
         <v>251.64137299999999</v>
@@ -28095,11 +27896,11 @@
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="5">
-        <v>2.4537036952096969E-3</v>
+      <c r="B214" s="4">
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D214">
         <v>251.249191</v>
@@ -28223,11 +28024,11 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="5">
-        <v>2.4652777647133917E-3</v>
+      <c r="B215" s="4">
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D215">
         <v>251.35343900000001</v>
@@ -28351,11 +28152,11 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="5">
-        <v>2.4768518633209169E-3</v>
+      <c r="B216" s="4">
+        <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D216">
         <v>250.99702500000001</v>
@@ -28479,11 +28280,11 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="5">
-        <v>2.4884259328246117E-3</v>
+      <c r="B217" s="4">
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D217">
         <v>250.53230300000001</v>
@@ -28607,11 +28408,11 @@
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="5">
-        <v>2.5000000023283064E-3</v>
+      <c r="B218" s="4">
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D218">
         <v>250.45701600000001</v>
@@ -28735,11 +28536,11 @@
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="5">
-        <v>2.5115740718320012E-3</v>
+      <c r="B219" s="4">
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D219">
         <v>250.04132100000001</v>
@@ -28863,11 +28664,11 @@
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="5">
-        <v>2.523148141335696E-3</v>
+      <c r="B220" s="4">
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D220">
         <v>250.20611600000001</v>
@@ -28991,11 +28792,11 @@
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="5">
-        <v>2.5347222108393908E-3</v>
+      <c r="B221" s="4">
+        <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D221">
         <v>249.61447100000001</v>
@@ -29119,11 +28920,11 @@
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="5">
-        <v>2.546296309446916E-3</v>
+      <c r="B222" s="4">
+        <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D222">
         <v>249.399384</v>
@@ -29247,11 +29048,11 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="5">
-        <v>2.5578703789506108E-3</v>
+      <c r="B223" s="4">
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D223">
         <v>248.935303</v>
@@ -29375,11 +29176,11 @@
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="5">
-        <v>2.5694444484543055E-3</v>
+      <c r="B224" s="4">
+        <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D224">
         <v>248.569885</v>
@@ -29503,11 +29304,11 @@
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="5">
-        <v>2.5810185179580003E-3</v>
+      <c r="B225" s="4">
+        <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D225">
         <v>248.92276000000001</v>
@@ -29631,11 +29432,11 @@
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="5">
-        <v>2.5925925874616951E-3</v>
+      <c r="B226" s="4">
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D226">
         <v>248.365982</v>
@@ -29759,11 +29560,11 @@
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="5">
-        <v>2.6041666569653898E-3</v>
+      <c r="B227" s="4">
+        <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D227">
         <v>248.112854</v>
@@ -29887,11 +29688,11 @@
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="5">
-        <v>2.6157407264690846E-3</v>
+      <c r="B228" s="4">
+        <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D228">
         <v>248.22636399999999</v>
@@ -30015,11 +29816,11 @@
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="5">
-        <v>2.6273148250766098E-3</v>
+      <c r="B229" s="4">
+        <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D229">
         <v>247.78537</v>
@@ -30141,619 +29942,466 @@
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230"/>
-      <c r="B230"/>
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231"/>
-      <c r="B231"/>
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232"/>
-      <c r="B232"/>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233"/>
-      <c r="B233"/>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234"/>
-      <c r="B234"/>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235"/>
-      <c r="B235"/>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236"/>
-      <c r="B236"/>
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237"/>
-      <c r="B237"/>
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238"/>
-      <c r="B238"/>
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239"/>
-      <c r="B239"/>
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240"/>
-      <c r="B240"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241"/>
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242"/>
-      <c r="B242"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243"/>
-      <c r="B243"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244"/>
-      <c r="B244"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245"/>
-      <c r="B245"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246"/>
-      <c r="B246"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247"/>
-      <c r="B247"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248"/>
-      <c r="B248"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249"/>
-      <c r="B249"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250"/>
-      <c r="B250"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251"/>
-      <c r="B251"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252"/>
-      <c r="B252"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253"/>
-      <c r="B253"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254"/>
-      <c r="B254"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255"/>
-      <c r="B255"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256"/>
-      <c r="B256"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257"/>
-      <c r="B257"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258"/>
-      <c r="B258"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259"/>
-      <c r="B259"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260"/>
-      <c r="B260"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261"/>
-      <c r="B261"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262"/>
-      <c r="B262"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263"/>
-      <c r="B263"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264"/>
-      <c r="B264"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265"/>
-      <c r="B265"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266"/>
-      <c r="B266"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267"/>
-      <c r="B267"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268"/>
-      <c r="B268"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269"/>
-      <c r="B269"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270"/>
-      <c r="B270"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271"/>
-      <c r="B271"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272"/>
-      <c r="B272"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273"/>
-      <c r="B273"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274"/>
-      <c r="B274"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275"/>
-      <c r="B275"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276"/>
-      <c r="B276"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277"/>
-      <c r="B277"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278"/>
-      <c r="B278"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279"/>
-      <c r="B279"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280"/>
-      <c r="B280"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281"/>
-      <c r="B281"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282"/>
-      <c r="B282"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283"/>
-      <c r="B283"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284"/>
-      <c r="B284"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285"/>
-      <c r="B285"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286"/>
-      <c r="B286"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287"/>
-      <c r="B287"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288"/>
-      <c r="B288"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289"/>
-      <c r="B289"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290"/>
-      <c r="B290"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291"/>
-      <c r="B291"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292"/>
-      <c r="B292"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293"/>
-      <c r="B293"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294"/>
-      <c r="B294"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295"/>
-      <c r="B295"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296"/>
-      <c r="B296"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297"/>
-      <c r="B297"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298"/>
-      <c r="B298"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299"/>
-      <c r="B299"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300"/>
-      <c r="B300"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301"/>
-      <c r="B301"/>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302"/>
-      <c r="B302"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303"/>
-      <c r="B303"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304"/>
-      <c r="B304"/>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305"/>
-      <c r="B305"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306"/>
-      <c r="B306"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307"/>
-      <c r="B307"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308"/>
-      <c r="B308"/>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309"/>
-      <c r="B309"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310"/>
-      <c r="B310"/>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311"/>
-      <c r="B311"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312"/>
-      <c r="B312"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313"/>
-      <c r="B313"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314"/>
-      <c r="B314"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315"/>
-      <c r="B315"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316"/>
-      <c r="B316"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317"/>
-      <c r="B317"/>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318"/>
-      <c r="B318"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319"/>
-      <c r="B319"/>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320"/>
-      <c r="B320"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321"/>
-      <c r="B321"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322"/>
-      <c r="B322"/>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323"/>
-      <c r="B323"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324"/>
-      <c r="B324"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325"/>
-      <c r="B325"/>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326"/>
-      <c r="B326"/>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327"/>
-      <c r="B327"/>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328"/>
-      <c r="B328"/>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329"/>
-      <c r="B329"/>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330"/>
-      <c r="B330"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331"/>
-      <c r="B331"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332"/>
-      <c r="B332"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333"/>
-      <c r="B333"/>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334"/>
-      <c r="B334"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335"/>
-      <c r="B335"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336"/>
-      <c r="B336"/>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337"/>
-      <c r="B337"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338"/>
-      <c r="B338"/>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339"/>
-      <c r="B339"/>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340"/>
-      <c r="B340"/>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341"/>
-      <c r="B341"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342"/>
-      <c r="B342"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343"/>
-      <c r="B343"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344"/>
-      <c r="B344"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345"/>
-      <c r="B345"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346"/>
-      <c r="B346"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347"/>
-      <c r="B347"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348"/>
-      <c r="B348"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349"/>
-      <c r="B349"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350"/>
-      <c r="B350"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351"/>
-      <c r="B351"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352"/>
-      <c r="B352"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353"/>
-      <c r="B353"/>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354"/>
-      <c r="B354"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355"/>
-      <c r="B355"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356"/>
-      <c r="B356"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357"/>
-      <c r="B357"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358"/>
-      <c r="B358"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359"/>
-      <c r="B359"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360"/>
-      <c r="B360"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361"/>
-      <c r="B361"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362"/>
-      <c r="B362"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363"/>
-      <c r="B363"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364"/>
-      <c r="B364"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365"/>
-      <c r="B365"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366"/>
-      <c r="B366"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367"/>
-      <c r="B367"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368"/>
-      <c r="B368"/>
     </row>
     <row r="369" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A369"/>
-      <c r="B369"/>
     </row>
     <row r="370" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A370"/>
-      <c r="B370"/>
     </row>
     <row r="371" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A371"/>
-      <c r="B371"/>
     </row>
     <row r="372" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A372"/>
-      <c r="B372"/>
     </row>
     <row r="373" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A373"/>
-      <c r="B373"/>
     </row>
     <row r="374" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A374"/>
-      <c r="B374"/>
     </row>
     <row r="375" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A375"/>
-      <c r="B375"/>
     </row>
     <row r="376" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A376"/>
-      <c r="B376"/>
     </row>
     <row r="377" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A377"/>
-      <c r="B377"/>
     </row>
     <row r="378" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A378"/>
-      <c r="B378"/>
     </row>
     <row r="379" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A379"/>
-      <c r="B379"/>
     </row>
     <row r="380" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A380"/>
-      <c r="B380"/>
     </row>
     <row r="381" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A381"/>
-      <c r="B381"/>
     </row>
     <row r="382" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A382"/>
-      <c r="B382"/>
     </row>
     <row r="383" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="3"/>
-      <c r="B383" s="4"/>
+      <c r="B383" s="5"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -30842,7 +30490,7 @@
     </row>
     <row r="384" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="3"/>
-      <c r="B384" s="4"/>
+      <c r="B384" s="5"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -30931,7 +30579,7 @@
     </row>
     <row r="385" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="3"/>
-      <c r="B385" s="4"/>
+      <c r="B385" s="5"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -31020,7 +30668,7 @@
     </row>
     <row r="386" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="3"/>
-      <c r="B386" s="4"/>
+      <c r="B386" s="5"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -31109,7 +30757,7 @@
     </row>
     <row r="387" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="3"/>
-      <c r="B387" s="4"/>
+      <c r="B387" s="5"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -31198,7 +30846,7 @@
     </row>
     <row r="388" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="3"/>
-      <c r="B388" s="4"/>
+      <c r="B388" s="5"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -31287,7 +30935,7 @@
     </row>
     <row r="389" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="3"/>
-      <c r="B389" s="4"/>
+      <c r="B389" s="5"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -31376,7 +31024,7 @@
     </row>
     <row r="390" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="3"/>
-      <c r="B390" s="4"/>
+      <c r="B390" s="5"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -31465,7 +31113,7 @@
     </row>
     <row r="391" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="3"/>
-      <c r="B391" s="4"/>
+      <c r="B391" s="5"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -31554,7 +31202,7 @@
     </row>
     <row r="392" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="3"/>
-      <c r="B392" s="4"/>
+      <c r="B392" s="5"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -31643,7 +31291,7 @@
     </row>
     <row r="393" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="3"/>
-      <c r="B393" s="4"/>
+      <c r="B393" s="5"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -31732,7 +31380,7 @@
     </row>
     <row r="394" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="3"/>
-      <c r="B394" s="4"/>
+      <c r="B394" s="5"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -31821,7 +31469,7 @@
     </row>
     <row r="395" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="3"/>
-      <c r="B395" s="4"/>
+      <c r="B395" s="5"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -31910,7 +31558,7 @@
     </row>
     <row r="396" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="3"/>
-      <c r="B396" s="4"/>
+      <c r="B396" s="5"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -31999,7 +31647,7 @@
     </row>
     <row r="397" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="3"/>
-      <c r="B397" s="4"/>
+      <c r="B397" s="5"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -32088,7 +31736,7 @@
     </row>
     <row r="398" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="3"/>
-      <c r="B398" s="4"/>
+      <c r="B398" s="5"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -32177,7 +31825,7 @@
     </row>
     <row r="399" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="3"/>
-      <c r="B399" s="4"/>
+      <c r="B399" s="5"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -32266,7 +31914,7 @@
     </row>
     <row r="400" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="3"/>
-      <c r="B400" s="4"/>
+      <c r="B400" s="5"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -32355,7 +32003,7 @@
     </row>
     <row r="401" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="3"/>
-      <c r="B401" s="4"/>
+      <c r="B401" s="5"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -32444,7 +32092,7 @@
     </row>
     <row r="402" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="3"/>
-      <c r="B402" s="4"/>
+      <c r="B402" s="5"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -32533,7 +32181,7 @@
     </row>
     <row r="403" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="3"/>
-      <c r="B403" s="4"/>
+      <c r="B403" s="5"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -32622,7 +32270,7 @@
     </row>
     <row r="404" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="3"/>
-      <c r="B404" s="4"/>
+      <c r="B404" s="5"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -32711,7 +32359,7 @@
     </row>
     <row r="405" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="3"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="5"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -32800,7 +32448,7 @@
     </row>
     <row r="406" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
-      <c r="B406" s="4"/>
+      <c r="B406" s="5"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -32883,7 +32531,7 @@
     </row>
     <row r="407" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="3"/>
-      <c r="B407" s="4"/>
+      <c r="B407" s="5"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -32966,7 +32614,7 @@
     </row>
     <row r="408" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
-      <c r="B408" s="4"/>
+      <c r="B408" s="5"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -33049,7 +32697,7 @@
     </row>
     <row r="409" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
-      <c r="B409" s="4"/>
+      <c r="B409" s="5"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -33132,7 +32780,7 @@
     </row>
     <row r="410" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="3"/>
-      <c r="B410" s="4"/>
+      <c r="B410" s="5"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -33215,7 +32863,7 @@
     </row>
     <row r="411" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="3"/>
-      <c r="B411" s="4"/>
+      <c r="B411" s="5"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -33298,7 +32946,7 @@
     </row>
     <row r="412" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="3"/>
-      <c r="B412" s="4"/>
+      <c r="B412" s="5"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -33381,7 +33029,7 @@
     </row>
     <row r="413" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="3"/>
-      <c r="B413" s="4"/>
+      <c r="B413" s="5"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -33464,7 +33112,7 @@
     </row>
     <row r="414" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="3"/>
-      <c r="B414" s="4"/>
+      <c r="B414" s="5"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -33547,7 +33195,7 @@
     </row>
     <row r="415" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="3"/>
-      <c r="B415" s="4"/>
+      <c r="B415" s="5"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -33630,7 +33278,7 @@
     </row>
     <row r="416" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="3"/>
-      <c r="B416" s="4"/>
+      <c r="B416" s="5"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -33713,7 +33361,7 @@
     </row>
     <row r="417" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="3"/>
-      <c r="B417" s="4"/>
+      <c r="B417" s="5"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -33796,7 +33444,7 @@
     </row>
     <row r="418" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="3"/>
-      <c r="B418" s="4"/>
+      <c r="B418" s="5"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -33879,7 +33527,7 @@
     </row>
     <row r="419" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="3"/>
-      <c r="B419" s="4"/>
+      <c r="B419" s="5"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -33962,7 +33610,7 @@
     </row>
     <row r="420" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="3"/>
-      <c r="B420" s="4"/>
+      <c r="B420" s="5"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -34045,7 +33693,7 @@
     </row>
     <row r="421" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="3"/>
-      <c r="B421" s="4"/>
+      <c r="B421" s="5"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -34128,7 +33776,7 @@
     </row>
     <row r="422" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="3"/>
-      <c r="B422" s="4"/>
+      <c r="B422" s="5"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -34211,7 +33859,7 @@
     </row>
     <row r="423" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="3"/>
-      <c r="B423" s="4"/>
+      <c r="B423" s="5"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -34294,7 +33942,7 @@
     </row>
     <row r="424" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="3"/>
-      <c r="B424" s="4"/>
+      <c r="B424" s="5"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -34377,7 +34025,7 @@
     </row>
     <row r="425" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="3"/>
-      <c r="B425" s="4"/>
+      <c r="B425" s="5"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -34460,7 +34108,7 @@
     </row>
     <row r="426" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="3"/>
-      <c r="B426" s="4"/>
+      <c r="B426" s="5"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -34543,7 +34191,7 @@
     </row>
     <row r="427" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="3"/>
-      <c r="B427" s="4"/>
+      <c r="B427" s="5"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -34626,7 +34274,7 @@
     </row>
     <row r="428" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="3"/>
-      <c r="B428" s="4"/>
+      <c r="B428" s="5"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -34709,7 +34357,7 @@
     </row>
     <row r="429" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="3"/>
-      <c r="B429" s="4"/>
+      <c r="B429" s="5"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -34792,7 +34440,7 @@
     </row>
     <row r="430" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="3"/>
-      <c r="B430" s="4"/>
+      <c r="B430" s="5"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -34875,7 +34523,7 @@
     </row>
     <row r="431" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="3"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="5"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -34958,7 +34606,7 @@
     </row>
     <row r="432" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="3"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="5"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -35041,7 +34689,7 @@
     </row>
     <row r="433" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="3"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="5"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -35124,7 +34772,7 @@
     </row>
     <row r="434" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="3"/>
-      <c r="B434" s="4"/>
+      <c r="B434" s="5"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -35207,7 +34855,7 @@
     </row>
     <row r="435" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="3"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="5"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -35290,7 +34938,7 @@
     </row>
     <row r="436" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="3"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="5"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -35373,7 +35021,7 @@
     </row>
     <row r="437" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="3"/>
-      <c r="B437" s="4"/>
+      <c r="B437" s="5"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -35456,7 +35104,7 @@
     </row>
     <row r="438" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="3"/>
-      <c r="B438" s="4"/>
+      <c r="B438" s="5"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -35539,7 +35187,7 @@
     </row>
     <row r="439" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="3"/>
-      <c r="B439" s="4"/>
+      <c r="B439" s="5"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -35622,7 +35270,7 @@
     </row>
     <row r="440" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="3"/>
-      <c r="B440" s="4"/>
+      <c r="B440" s="5"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -35705,7 +35353,7 @@
     </row>
     <row r="441" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="3"/>
-      <c r="B441" s="4"/>
+      <c r="B441" s="5"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -35788,7 +35436,7 @@
     </row>
     <row r="442" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="3"/>
-      <c r="B442" s="4"/>
+      <c r="B442" s="5"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -35871,7 +35519,7 @@
     </row>
     <row r="443" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="3"/>
-      <c r="B443" s="4"/>
+      <c r="B443" s="5"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -35954,7 +35602,7 @@
     </row>
     <row r="444" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="3"/>
-      <c r="B444" s="4"/>
+      <c r="B444" s="5"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -36037,7 +35685,7 @@
     </row>
     <row r="445" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="3"/>
-      <c r="B445" s="4"/>
+      <c r="B445" s="5"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -36120,7 +35768,7 @@
     </row>
     <row r="446" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="3"/>
-      <c r="B446" s="4"/>
+      <c r="B446" s="5"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -36203,7 +35851,7 @@
     </row>
     <row r="447" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="3"/>
-      <c r="B447" s="4"/>
+      <c r="B447" s="5"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -36286,7 +35934,7 @@
     </row>
     <row r="448" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="3"/>
-      <c r="B448" s="4"/>
+      <c r="B448" s="5"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -36369,7 +36017,7 @@
     </row>
     <row r="449" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="3"/>
-      <c r="B449" s="4"/>
+      <c r="B449" s="5"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -36452,7 +36100,7 @@
     </row>
     <row r="450" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="3"/>
-      <c r="B450" s="4"/>
+      <c r="B450" s="5"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -36535,7 +36183,7 @@
     </row>
     <row r="451" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="3"/>
-      <c r="B451" s="4"/>
+      <c r="B451" s="5"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -36618,7 +36266,7 @@
     </row>
     <row r="452" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="3"/>
-      <c r="B452" s="4"/>
+      <c r="B452" s="5"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -36701,7 +36349,7 @@
     </row>
     <row r="453" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="3"/>
-      <c r="B453" s="4"/>
+      <c r="B453" s="5"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -36784,7 +36432,7 @@
     </row>
     <row r="454" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="3"/>
-      <c r="B454" s="4"/>
+      <c r="B454" s="5"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -36867,7 +36515,7 @@
     </row>
     <row r="455" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="3"/>
-      <c r="B455" s="4"/>
+      <c r="B455" s="5"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -36950,7 +36598,7 @@
     </row>
     <row r="456" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="3"/>
-      <c r="B456" s="4"/>
+      <c r="B456" s="5"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -37033,7 +36681,7 @@
     </row>
     <row r="457" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="3"/>
-      <c r="B457" s="4"/>
+      <c r="B457" s="5"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -37116,7 +36764,7 @@
     </row>
     <row r="458" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="3"/>
-      <c r="B458" s="4"/>
+      <c r="B458" s="5"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -37199,7 +36847,7 @@
     </row>
     <row r="459" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="3"/>
-      <c r="B459" s="4"/>
+      <c r="B459" s="5"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -37282,7 +36930,7 @@
     </row>
     <row r="460" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="3"/>
-      <c r="B460" s="4"/>
+      <c r="B460" s="5"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -37365,7 +37013,7 @@
     </row>
     <row r="461" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="3"/>
-      <c r="B461" s="4"/>
+      <c r="B461" s="5"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -37448,7 +37096,7 @@
     </row>
     <row r="462" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="3"/>
-      <c r="B462" s="4"/>
+      <c r="B462" s="5"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -37531,7 +37179,7 @@
     </row>
     <row r="463" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="3"/>
-      <c r="B463" s="4"/>
+      <c r="B463" s="5"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -37614,7 +37262,7 @@
     </row>
     <row r="464" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="3"/>
-      <c r="B464" s="4"/>
+      <c r="B464" s="5"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -37697,7 +37345,7 @@
     </row>
     <row r="465" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="3"/>
-      <c r="B465" s="4"/>
+      <c r="B465" s="5"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -37780,7 +37428,7 @@
     </row>
     <row r="466" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="3"/>
-      <c r="B466" s="4"/>
+      <c r="B466" s="5"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -37863,7 +37511,7 @@
     </row>
     <row r="467" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="3"/>
-      <c r="B467" s="4"/>
+      <c r="B467" s="5"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -37946,7 +37594,7 @@
     </row>
     <row r="468" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="3"/>
-      <c r="B468" s="4"/>
+      <c r="B468" s="5"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -38029,7 +37677,7 @@
     </row>
     <row r="469" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="3"/>
-      <c r="B469" s="4"/>
+      <c r="B469" s="5"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -38112,7 +37760,7 @@
     </row>
     <row r="470" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="3"/>
-      <c r="B470" s="4"/>
+      <c r="B470" s="5"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -38195,7 +37843,7 @@
     </row>
     <row r="471" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="3"/>
-      <c r="B471" s="4"/>
+      <c r="B471" s="5"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -38278,7 +37926,7 @@
     </row>
     <row r="472" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="3"/>
-      <c r="B472" s="4"/>
+      <c r="B472" s="5"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -38361,7 +38009,7 @@
     </row>
     <row r="473" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="3"/>
-      <c r="B473" s="4"/>
+      <c r="B473" s="5"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -38444,7 +38092,7 @@
     </row>
     <row r="474" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="3"/>
-      <c r="B474" s="4"/>
+      <c r="B474" s="5"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -38527,7 +38175,7 @@
     </row>
     <row r="475" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="3"/>
-      <c r="B475" s="4"/>
+      <c r="B475" s="5"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -38610,7 +38258,7 @@
     </row>
     <row r="476" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="3"/>
-      <c r="B476" s="4"/>
+      <c r="B476" s="5"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -38693,7 +38341,7 @@
     </row>
     <row r="477" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="3"/>
-      <c r="B477" s="4"/>
+      <c r="B477" s="5"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -38776,7 +38424,7 @@
     </row>
     <row r="478" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="3"/>
-      <c r="B478" s="4"/>
+      <c r="B478" s="5"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -38859,7 +38507,7 @@
     </row>
     <row r="479" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="3"/>
-      <c r="B479" s="4"/>
+      <c r="B479" s="5"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -38942,7 +38590,7 @@
     </row>
     <row r="480" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="3"/>
-      <c r="B480" s="4"/>
+      <c r="B480" s="5"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -39025,7 +38673,7 @@
     </row>
     <row r="481" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="3"/>
-      <c r="B481" s="4"/>
+      <c r="B481" s="5"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -39108,7 +38756,7 @@
     </row>
     <row r="482" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="3"/>
-      <c r="B482" s="4"/>
+      <c r="B482" s="5"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -39191,7 +38839,7 @@
     </row>
     <row r="483" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="3"/>
-      <c r="B483" s="4"/>
+      <c r="B483" s="5"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -39274,7 +38922,7 @@
     </row>
     <row r="484" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="3"/>
-      <c r="B484" s="4"/>
+      <c r="B484" s="5"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -39357,7 +39005,7 @@
     </row>
     <row r="485" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="3"/>
-      <c r="B485" s="4"/>
+      <c r="B485" s="5"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -39440,7 +39088,7 @@
     </row>
     <row r="486" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="3"/>
-      <c r="B486" s="4"/>
+      <c r="B486" s="5"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -39523,7 +39171,7 @@
     </row>
     <row r="487" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="3"/>
-      <c r="B487" s="4"/>
+      <c r="B487" s="5"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -39606,7 +39254,7 @@
     </row>
     <row r="488" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="3"/>
-      <c r="B488" s="4"/>
+      <c r="B488" s="5"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -39689,7 +39337,7 @@
     </row>
     <row r="489" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="3"/>
-      <c r="B489" s="4"/>
+      <c r="B489" s="5"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -39772,7 +39420,7 @@
     </row>
     <row r="490" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="3"/>
-      <c r="B490" s="4"/>
+      <c r="B490" s="5"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -39855,7 +39503,7 @@
     </row>
     <row r="491" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="3"/>
-      <c r="B491" s="4"/>
+      <c r="B491" s="5"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -39938,7 +39586,7 @@
     </row>
     <row r="492" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="3"/>
-      <c r="B492" s="4"/>
+      <c r="B492" s="5"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -40021,7 +39669,7 @@
     </row>
     <row r="493" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="3"/>
-      <c r="B493" s="4"/>
+      <c r="B493" s="5"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -40104,7 +39752,7 @@
     </row>
     <row r="494" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="3"/>
-      <c r="B494" s="4"/>
+      <c r="B494" s="5"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -40187,7 +39835,7 @@
     </row>
     <row r="495" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="3"/>
-      <c r="B495" s="4"/>
+      <c r="B495" s="5"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -40270,7 +39918,7 @@
     </row>
     <row r="496" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="3"/>
-      <c r="B496" s="4"/>
+      <c r="B496" s="5"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -40353,7 +40001,7 @@
     </row>
     <row r="497" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="3"/>
-      <c r="B497" s="4"/>
+      <c r="B497" s="5"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -40436,7 +40084,7 @@
     </row>
     <row r="498" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="3"/>
-      <c r="B498" s="4"/>
+      <c r="B498" s="5"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -40519,7 +40167,7 @@
     </row>
     <row r="499" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="3"/>
-      <c r="B499" s="4"/>
+      <c r="B499" s="5"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -40602,7 +40250,7 @@
     </row>
     <row r="500" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="3"/>
-      <c r="B500" s="4"/>
+      <c r="B500" s="5"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -40685,7 +40333,7 @@
     </row>
     <row r="501" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="3"/>
-      <c r="B501" s="4"/>
+      <c r="B501" s="5"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -40768,7 +40416,7 @@
     </row>
     <row r="502" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="3"/>
-      <c r="B502" s="4"/>
+      <c r="B502" s="5"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -40851,7 +40499,7 @@
     </row>
     <row r="503" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="3"/>
-      <c r="B503" s="4"/>
+      <c r="B503" s="5"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -40934,7 +40582,7 @@
     </row>
     <row r="504" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="3"/>
-      <c r="B504" s="4"/>
+      <c r="B504" s="5"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -41017,7 +40665,7 @@
     </row>
     <row r="505" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="3"/>
-      <c r="B505" s="4"/>
+      <c r="B505" s="5"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -41100,7 +40748,7 @@
     </row>
     <row r="506" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="3"/>
-      <c r="B506" s="4"/>
+      <c r="B506" s="5"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -41183,7 +40831,7 @@
     </row>
     <row r="507" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="3"/>
-      <c r="B507" s="4"/>
+      <c r="B507" s="5"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -41266,7 +40914,7 @@
     </row>
     <row r="508" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="3"/>
-      <c r="B508" s="4"/>
+      <c r="B508" s="5"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -41349,7 +40997,7 @@
     </row>
     <row r="509" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="3"/>
-      <c r="B509" s="4"/>
+      <c r="B509" s="5"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -41432,7 +41080,7 @@
     </row>
     <row r="510" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="3"/>
-      <c r="B510" s="4"/>
+      <c r="B510" s="5"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -41515,7 +41163,7 @@
     </row>
     <row r="511" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="3"/>
-      <c r="B511" s="4"/>
+      <c r="B511" s="5"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -41598,7 +41246,7 @@
     </row>
     <row r="512" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="3"/>
-      <c r="B512" s="4"/>
+      <c r="B512" s="5"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -41681,7 +41329,7 @@
     </row>
     <row r="513" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="3"/>
-      <c r="B513" s="4"/>
+      <c r="B513" s="5"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -41764,7 +41412,7 @@
     </row>
     <row r="514" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="3"/>
-      <c r="B514" s="4"/>
+      <c r="B514" s="5"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -41847,7 +41495,7 @@
     </row>
     <row r="515" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="3"/>
-      <c r="B515" s="4"/>
+      <c r="B515" s="5"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -41930,7 +41578,7 @@
     </row>
     <row r="516" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="3"/>
-      <c r="B516" s="4"/>
+      <c r="B516" s="5"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -42013,7 +41661,7 @@
     </row>
     <row r="517" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="3"/>
-      <c r="B517" s="4"/>
+      <c r="B517" s="5"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -42096,7 +41744,7 @@
     </row>
     <row r="518" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="3"/>
-      <c r="B518" s="4"/>
+      <c r="B518" s="5"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -42164,7 +41812,7 @@
     </row>
     <row r="519" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="3"/>
-      <c r="B519" s="4"/>
+      <c r="B519" s="5"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -42232,7 +41880,7 @@
     </row>
     <row r="520" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="3"/>
-      <c r="B520" s="4"/>
+      <c r="B520" s="5"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -42300,7 +41948,7 @@
     </row>
     <row r="521" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="3"/>
-      <c r="B521" s="4"/>
+      <c r="B521" s="5"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -42368,7 +42016,7 @@
     </row>
     <row r="522" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="3"/>
-      <c r="B522" s="4"/>
+      <c r="B522" s="5"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -42436,7 +42084,7 @@
     </row>
     <row r="523" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="3"/>
-      <c r="B523" s="4"/>
+      <c r="B523" s="5"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -42504,7 +42152,7 @@
     </row>
     <row r="524" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="3"/>
-      <c r="B524" s="4"/>
+      <c r="B524" s="5"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -42572,7 +42220,7 @@
     </row>
     <row r="525" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="3"/>
-      <c r="B525" s="4"/>
+      <c r="B525" s="5"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -42640,7 +42288,7 @@
     </row>
     <row r="526" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="3"/>
-      <c r="B526" s="4"/>
+      <c r="B526" s="5"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -42708,7 +42356,7 @@
     </row>
     <row r="527" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="3"/>
-      <c r="B527" s="4"/>
+      <c r="B527" s="5"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -42776,7 +42424,7 @@
     </row>
     <row r="528" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="3"/>
-      <c r="B528" s="4"/>
+      <c r="B528" s="5"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -42844,7 +42492,7 @@
     </row>
     <row r="529" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="3"/>
-      <c r="B529" s="4"/>
+      <c r="B529" s="5"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -42912,7 +42560,7 @@
     </row>
     <row r="530" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="3"/>
-      <c r="B530" s="4"/>
+      <c r="B530" s="5"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -42980,7 +42628,7 @@
     </row>
     <row r="531" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="3"/>
-      <c r="B531" s="4"/>
+      <c r="B531" s="5"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -43048,7 +42696,7 @@
     </row>
     <row r="532" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="3"/>
-      <c r="B532" s="4"/>
+      <c r="B532" s="5"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -43116,7 +42764,7 @@
     </row>
     <row r="533" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="3"/>
-      <c r="B533" s="4"/>
+      <c r="B533" s="5"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -43184,7 +42832,7 @@
     </row>
     <row r="534" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="3"/>
-      <c r="B534" s="4"/>
+      <c r="B534" s="5"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -43252,7 +42900,7 @@
     </row>
     <row r="535" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="3"/>
-      <c r="B535" s="4"/>
+      <c r="B535" s="5"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -43320,7 +42968,7 @@
     </row>
     <row r="536" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="3"/>
-      <c r="B536" s="4"/>
+      <c r="B536" s="5"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -43388,7 +43036,7 @@
     </row>
     <row r="537" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="3"/>
-      <c r="B537" s="4"/>
+      <c r="B537" s="5"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -43456,7 +43104,7 @@
     </row>
     <row r="538" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="3"/>
-      <c r="B538" s="4"/>
+      <c r="B538" s="5"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -43524,7 +43172,7 @@
     </row>
     <row r="539" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="3"/>
-      <c r="B539" s="4"/>
+      <c r="B539" s="5"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -43592,7 +43240,7 @@
     </row>
     <row r="540" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="3"/>
-      <c r="B540" s="4"/>
+      <c r="B540" s="5"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -43660,7 +43308,7 @@
     </row>
     <row r="541" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="3"/>
-      <c r="B541" s="4"/>
+      <c r="B541" s="5"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -43728,7 +43376,7 @@
     </row>
     <row r="542" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="3"/>
-      <c r="B542" s="4"/>
+      <c r="B542" s="5"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -43796,7 +43444,7 @@
     </row>
     <row r="543" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="3"/>
-      <c r="B543" s="4"/>
+      <c r="B543" s="5"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -43864,7 +43512,7 @@
     </row>
     <row r="544" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="3"/>
-      <c r="B544" s="4"/>
+      <c r="B544" s="5"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -43932,7 +43580,7 @@
     </row>
     <row r="545" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="3"/>
-      <c r="B545" s="4"/>
+      <c r="B545" s="5"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -44000,7 +43648,7 @@
     </row>
     <row r="546" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="3"/>
-      <c r="B546" s="4"/>
+      <c r="B546" s="5"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -44068,7 +43716,7 @@
     </row>
     <row r="547" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="3"/>
-      <c r="B547" s="4"/>
+      <c r="B547" s="5"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -44136,7 +43784,7 @@
     </row>
     <row r="548" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="3"/>
-      <c r="B548" s="4"/>
+      <c r="B548" s="5"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -44204,7 +43852,7 @@
     </row>
     <row r="549" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="3"/>
-      <c r="B549" s="4"/>
+      <c r="B549" s="5"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -44272,7 +43920,7 @@
     </row>
     <row r="550" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="3"/>
-      <c r="B550" s="4"/>
+      <c r="B550" s="5"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -44340,7 +43988,7 @@
     </row>
     <row r="551" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="3"/>
-      <c r="B551" s="4"/>
+      <c r="B551" s="5"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -44408,7 +44056,7 @@
     </row>
     <row r="552" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="3"/>
-      <c r="B552" s="4"/>
+      <c r="B552" s="5"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -44476,7 +44124,7 @@
     </row>
     <row r="553" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="3"/>
-      <c r="B553" s="4"/>
+      <c r="B553" s="5"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -44544,7 +44192,7 @@
     </row>
     <row r="554" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="3"/>
-      <c r="B554" s="4"/>
+      <c r="B554" s="5"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -44612,7 +44260,7 @@
     </row>
     <row r="555" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="3"/>
-      <c r="B555" s="4"/>
+      <c r="B555" s="5"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -44680,7 +44328,7 @@
     </row>
     <row r="556" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="3"/>
-      <c r="B556" s="4"/>
+      <c r="B556" s="5"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -44748,7 +44396,7 @@
     </row>
     <row r="557" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="3"/>
-      <c r="B557" s="4"/>
+      <c r="B557" s="5"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -44816,7 +44464,7 @@
     </row>
     <row r="558" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="3"/>
-      <c r="B558" s="4"/>
+      <c r="B558" s="5"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -44884,7 +44532,7 @@
     </row>
     <row r="559" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="3"/>
-      <c r="B559" s="4"/>
+      <c r="B559" s="5"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -44952,7 +44600,7 @@
     </row>
     <row r="560" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="3"/>
-      <c r="B560" s="4"/>
+      <c r="B560" s="5"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
@@ -45020,7 +44668,7 @@
     </row>
     <row r="561" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="3"/>
-      <c r="B561" s="4"/>
+      <c r="B561" s="5"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
@@ -45088,7 +44736,7 @@
     </row>
     <row r="562" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="3"/>
-      <c r="B562" s="4"/>
+      <c r="B562" s="5"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
@@ -45156,7 +44804,7 @@
     </row>
     <row r="563" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="3"/>
-      <c r="B563" s="4"/>
+      <c r="B563" s="5"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
@@ -45224,7 +44872,7 @@
     </row>
     <row r="564" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="3"/>
-      <c r="B564" s="4"/>
+      <c r="B564" s="5"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
@@ -45292,7 +44940,7 @@
     </row>
     <row r="565" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="3"/>
-      <c r="B565" s="4"/>
+      <c r="B565" s="5"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
@@ -45360,7 +45008,7 @@
     </row>
     <row r="566" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="3"/>
-      <c r="B566" s="4"/>
+      <c r="B566" s="5"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
@@ -45428,7 +45076,7 @@
     </row>
     <row r="567" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="3"/>
-      <c r="B567" s="4"/>
+      <c r="B567" s="5"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -45496,7 +45144,7 @@
     </row>
     <row r="568" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="3"/>
-      <c r="B568" s="4"/>
+      <c r="B568" s="5"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
@@ -45564,7 +45212,7 @@
     </row>
     <row r="569" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="3"/>
-      <c r="B569" s="4"/>
+      <c r="B569" s="5"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
@@ -45632,7 +45280,7 @@
     </row>
     <row r="570" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="3"/>
-      <c r="B570" s="4"/>
+      <c r="B570" s="5"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -45700,7 +45348,7 @@
     </row>
     <row r="571" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="3"/>
-      <c r="B571" s="4"/>
+      <c r="B571" s="5"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
@@ -45768,7 +45416,7 @@
     </row>
     <row r="572" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="3"/>
-      <c r="B572" s="4"/>
+      <c r="B572" s="5"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -45836,7 +45484,7 @@
     </row>
     <row r="573" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="3"/>
-      <c r="B573" s="4"/>
+      <c r="B573" s="5"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -45904,7 +45552,7 @@
     </row>
     <row r="574" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="3"/>
-      <c r="B574" s="4"/>
+      <c r="B574" s="5"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
@@ -45972,7 +45620,7 @@
     </row>
     <row r="575" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="3"/>
-      <c r="B575" s="4"/>
+      <c r="B575" s="5"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
@@ -46040,7 +45688,7 @@
     </row>
     <row r="576" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="3"/>
-      <c r="B576" s="4"/>
+      <c r="B576" s="5"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
@@ -46108,7 +45756,7 @@
     </row>
     <row r="577" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="3"/>
-      <c r="B577" s="4"/>
+      <c r="B577" s="5"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -46176,7 +45824,7 @@
     </row>
     <row r="578" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="3"/>
-      <c r="B578" s="4"/>
+      <c r="B578" s="5"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
@@ -46244,7 +45892,7 @@
     </row>
     <row r="579" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="3"/>
-      <c r="B579" s="4"/>
+      <c r="B579" s="5"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
@@ -46312,7 +45960,7 @@
     </row>
     <row r="580" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="3"/>
-      <c r="B580" s="4"/>
+      <c r="B580" s="5"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
@@ -46380,7 +46028,7 @@
     </row>
     <row r="581" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="3"/>
-      <c r="B581" s="4"/>
+      <c r="B581" s="5"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
@@ -46448,7 +46096,7 @@
     </row>
     <row r="582" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="3"/>
-      <c r="B582" s="4"/>
+      <c r="B582" s="5"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
@@ -46516,7 +46164,7 @@
     </row>
     <row r="583" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="3"/>
-      <c r="B583" s="4"/>
+      <c r="B583" s="5"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
@@ -46584,7 +46232,7 @@
     </row>
     <row r="584" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="3"/>
-      <c r="B584" s="4"/>
+      <c r="B584" s="5"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
@@ -46652,7 +46300,7 @@
     </row>
     <row r="585" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="3"/>
-      <c r="B585" s="4"/>
+      <c r="B585" s="5"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
@@ -46720,7 +46368,7 @@
     </row>
     <row r="586" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="3"/>
-      <c r="B586" s="4"/>
+      <c r="B586" s="5"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
@@ -46788,7 +46436,7 @@
     </row>
     <row r="587" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="3"/>
-      <c r="B587" s="4"/>
+      <c r="B587" s="5"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
@@ -46856,7 +46504,7 @@
     </row>
     <row r="588" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="3"/>
-      <c r="B588" s="4"/>
+      <c r="B588" s="5"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
@@ -46924,7 +46572,7 @@
     </row>
     <row r="589" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="3"/>
-      <c r="B589" s="4"/>
+      <c r="B589" s="5"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
@@ -46992,7 +46640,7 @@
     </row>
     <row r="590" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="3"/>
-      <c r="B590" s="4"/>
+      <c r="B590" s="5"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
@@ -47060,7 +46708,7 @@
     </row>
     <row r="591" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="3"/>
-      <c r="B591" s="4"/>
+      <c r="B591" s="5"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
@@ -47128,7 +46776,7 @@
     </row>
     <row r="592" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="3"/>
-      <c r="B592" s="4"/>
+      <c r="B592" s="5"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
@@ -47196,7 +46844,7 @@
     </row>
     <row r="593" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="3"/>
-      <c r="B593" s="4"/>
+      <c r="B593" s="5"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
@@ -47264,7 +46912,7 @@
     </row>
     <row r="594" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="3"/>
-      <c r="B594" s="4"/>
+      <c r="B594" s="5"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -47332,7 +46980,7 @@
     </row>
     <row r="595" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="3"/>
-      <c r="B595" s="4"/>
+      <c r="B595" s="5"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
@@ -47400,7 +47048,7 @@
     </row>
     <row r="596" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="3"/>
-      <c r="B596" s="4"/>
+      <c r="B596" s="5"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
@@ -47468,7 +47116,7 @@
     </row>
     <row r="597" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="3"/>
-      <c r="B597" s="4"/>
+      <c r="B597" s="5"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
@@ -47536,7 +47184,7 @@
     </row>
     <row r="598" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="3"/>
-      <c r="B598" s="4"/>
+      <c r="B598" s="5"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
@@ -47604,7 +47252,7 @@
     </row>
     <row r="599" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="3"/>
-      <c r="B599" s="4"/>
+      <c r="B599" s="5"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
@@ -47672,7 +47320,7 @@
     </row>
     <row r="600" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="3"/>
-      <c r="B600" s="4"/>
+      <c r="B600" s="5"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
@@ -47740,7 +47388,7 @@
     </row>
     <row r="601" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="3"/>
-      <c r="B601" s="4"/>
+      <c r="B601" s="5"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
@@ -47808,7 +47456,7 @@
     </row>
     <row r="602" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="3"/>
-      <c r="B602" s="4"/>
+      <c r="B602" s="5"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
@@ -47876,7 +47524,7 @@
     </row>
     <row r="603" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="3"/>
-      <c r="B603" s="4"/>
+      <c r="B603" s="5"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
@@ -47944,7 +47592,7 @@
     </row>
     <row r="604" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="3"/>
-      <c r="B604" s="4"/>
+      <c r="B604" s="5"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
@@ -48012,7 +47660,7 @@
     </row>
     <row r="605" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="3"/>
-      <c r="B605" s="4"/>
+      <c r="B605" s="5"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
@@ -48080,7 +47728,7 @@
     </row>
     <row r="606" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="3"/>
-      <c r="B606" s="4"/>
+      <c r="B606" s="5"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
@@ -48148,7 +47796,7 @@
     </row>
     <row r="607" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="3"/>
-      <c r="B607" s="4"/>
+      <c r="B607" s="5"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -48216,7 +47864,7 @@
     </row>
     <row r="608" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="3"/>
-      <c r="B608" s="4"/>
+      <c r="B608" s="5"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -48284,7 +47932,7 @@
     </row>
     <row r="609" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="3"/>
-      <c r="B609" s="4"/>
+      <c r="B609" s="5"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -48352,7 +48000,7 @@
     </row>
     <row r="610" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="3"/>
-      <c r="B610" s="4"/>
+      <c r="B610" s="5"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
@@ -48420,7 +48068,7 @@
     </row>
     <row r="611" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="3"/>
-      <c r="B611" s="4"/>
+      <c r="B611" s="5"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
@@ -48488,7 +48136,7 @@
     </row>
     <row r="612" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="3"/>
-      <c r="B612" s="4"/>
+      <c r="B612" s="5"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
@@ -48556,7 +48204,7 @@
     </row>
     <row r="613" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="3"/>
-      <c r="B613" s="4"/>
+      <c r="B613" s="5"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
@@ -48624,7 +48272,7 @@
     </row>
     <row r="614" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="3"/>
-      <c r="B614" s="4"/>
+      <c r="B614" s="5"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
@@ -48692,7 +48340,7 @@
     </row>
     <row r="615" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="3"/>
-      <c r="B615" s="4"/>
+      <c r="B615" s="5"/>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
@@ -48760,7 +48408,7 @@
     </row>
     <row r="616" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="3"/>
-      <c r="B616" s="4"/>
+      <c r="B616" s="5"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
@@ -48828,7 +48476,7 @@
     </row>
     <row r="617" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="3"/>
-      <c r="B617" s="4"/>
+      <c r="B617" s="5"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
@@ -48896,7 +48544,7 @@
     </row>
     <row r="618" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="3"/>
-      <c r="B618" s="4"/>
+      <c r="B618" s="5"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
@@ -48964,7 +48612,7 @@
     </row>
     <row r="619" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="3"/>
-      <c r="B619" s="4"/>
+      <c r="B619" s="5"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
@@ -49032,7 +48680,7 @@
     </row>
     <row r="620" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="3"/>
-      <c r="B620" s="4"/>
+      <c r="B620" s="5"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
@@ -49100,7 +48748,7 @@
     </row>
     <row r="621" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="3"/>
-      <c r="B621" s="4"/>
+      <c r="B621" s="5"/>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
@@ -49168,7 +48816,7 @@
     </row>
     <row r="622" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="3"/>
-      <c r="B622" s="4"/>
+      <c r="B622" s="5"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
@@ -49236,7 +48884,7 @@
     </row>
     <row r="623" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="3"/>
-      <c r="B623" s="4"/>
+      <c r="B623" s="5"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
@@ -49304,7 +48952,7 @@
     </row>
     <row r="624" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="3"/>
-      <c r="B624" s="4"/>
+      <c r="B624" s="5"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
@@ -49372,7 +49020,7 @@
     </row>
     <row r="625" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="3"/>
-      <c r="B625" s="4"/>
+      <c r="B625" s="5"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
@@ -49440,7 +49088,7 @@
     </row>
     <row r="626" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="3"/>
-      <c r="B626" s="4"/>
+      <c r="B626" s="5"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
@@ -49508,7 +49156,7 @@
     </row>
     <row r="627" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="3"/>
-      <c r="B627" s="4"/>
+      <c r="B627" s="5"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
@@ -49576,7 +49224,7 @@
     </row>
     <row r="628" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="3"/>
-      <c r="B628" s="4"/>
+      <c r="B628" s="5"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
@@ -49644,7 +49292,7 @@
     </row>
     <row r="629" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="3"/>
-      <c r="B629" s="4"/>
+      <c r="B629" s="5"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
@@ -49712,7 +49360,7 @@
     </row>
     <row r="630" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="3"/>
-      <c r="B630" s="4"/>
+      <c r="B630" s="5"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
@@ -49780,7 +49428,7 @@
     </row>
     <row r="631" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="3"/>
-      <c r="B631" s="4"/>
+      <c r="B631" s="5"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
@@ -49848,7 +49496,7 @@
     </row>
     <row r="632" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="3"/>
-      <c r="B632" s="4"/>
+      <c r="B632" s="5"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
@@ -49916,7 +49564,7 @@
     </row>
     <row r="633" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="3"/>
-      <c r="B633" s="4"/>
+      <c r="B633" s="5"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
@@ -49984,7 +49632,7 @@
     </row>
     <row r="634" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="3"/>
-      <c r="B634" s="4"/>
+      <c r="B634" s="5"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
@@ -50052,7 +49700,7 @@
     </row>
     <row r="635" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="3"/>
-      <c r="B635" s="4"/>
+      <c r="B635" s="5"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
@@ -50120,7 +49768,7 @@
     </row>
     <row r="636" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="3"/>
-      <c r="B636" s="4"/>
+      <c r="B636" s="5"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
@@ -50188,7 +49836,7 @@
     </row>
     <row r="637" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="3"/>
-      <c r="B637" s="4"/>
+      <c r="B637" s="5"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
@@ -50256,7 +49904,7 @@
     </row>
     <row r="638" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="3"/>
-      <c r="B638" s="4"/>
+      <c r="B638" s="5"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
@@ -50324,7 +49972,7 @@
     </row>
     <row r="639" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="3"/>
-      <c r="B639" s="4"/>
+      <c r="B639" s="5"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
@@ -50392,7 +50040,7 @@
     </row>
     <row r="640" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="3"/>
-      <c r="B640" s="4"/>
+      <c r="B640" s="5"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
@@ -50460,7 +50108,7 @@
     </row>
     <row r="641" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="3"/>
-      <c r="B641" s="4"/>
+      <c r="B641" s="5"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
@@ -50528,7 +50176,7 @@
     </row>
     <row r="642" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="3"/>
-      <c r="B642" s="4"/>
+      <c r="B642" s="5"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
@@ -50596,7 +50244,7 @@
     </row>
     <row r="643" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="3"/>
-      <c r="B643" s="4"/>
+      <c r="B643" s="5"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
@@ -50664,7 +50312,7 @@
     </row>
     <row r="644" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="3"/>
-      <c r="B644" s="4"/>
+      <c r="B644" s="5"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
@@ -50732,7 +50380,7 @@
     </row>
     <row r="645" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="3"/>
-      <c r="B645" s="4"/>
+      <c r="B645" s="5"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
@@ -50800,7 +50448,7 @@
     </row>
     <row r="646" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="3"/>
-      <c r="B646" s="4"/>
+      <c r="B646" s="5"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
@@ -50868,7 +50516,7 @@
     </row>
     <row r="647" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="3"/>
-      <c r="B647" s="4"/>
+      <c r="B647" s="5"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
@@ -50936,7 +50584,7 @@
     </row>
     <row r="648" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="3"/>
-      <c r="B648" s="4"/>
+      <c r="B648" s="5"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
@@ -51004,7 +50652,7 @@
     </row>
     <row r="649" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="3"/>
-      <c r="B649" s="4"/>
+      <c r="B649" s="5"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
@@ -51072,7 +50720,7 @@
     </row>
     <row r="650" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="3"/>
-      <c r="B650" s="4"/>
+      <c r="B650" s="5"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
@@ -51140,7 +50788,7 @@
     </row>
     <row r="651" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="3"/>
-      <c r="B651" s="4"/>
+      <c r="B651" s="5"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
@@ -51208,7 +50856,7 @@
     </row>
     <row r="652" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="3"/>
-      <c r="B652" s="4"/>
+      <c r="B652" s="5"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
@@ -51276,7 +50924,7 @@
     </row>
     <row r="653" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="3"/>
-      <c r="B653" s="4"/>
+      <c r="B653" s="5"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
@@ -51344,7 +50992,7 @@
     </row>
     <row r="654" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="3"/>
-      <c r="B654" s="4"/>
+      <c r="B654" s="5"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
@@ -51412,7 +51060,7 @@
     </row>
     <row r="655" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="3"/>
-      <c r="B655" s="4"/>
+      <c r="B655" s="5"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
@@ -51480,7 +51128,7 @@
     </row>
     <row r="656" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="3"/>
-      <c r="B656" s="4"/>
+      <c r="B656" s="5"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
@@ -51548,7 +51196,7 @@
     </row>
     <row r="657" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="3"/>
-      <c r="B657" s="4"/>
+      <c r="B657" s="5"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
@@ -51616,7 +51264,7 @@
     </row>
     <row r="658" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="3"/>
-      <c r="B658" s="4"/>
+      <c r="B658" s="5"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
@@ -51684,7 +51332,7 @@
     </row>
     <row r="659" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="3"/>
-      <c r="B659" s="4"/>
+      <c r="B659" s="5"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
@@ -51752,7 +51400,7 @@
     </row>
     <row r="660" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="3"/>
-      <c r="B660" s="4"/>
+      <c r="B660" s="5"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
@@ -51820,7 +51468,7 @@
     </row>
     <row r="661" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="3"/>
-      <c r="B661" s="4"/>
+      <c r="B661" s="5"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
@@ -51888,7 +51536,7 @@
     </row>
     <row r="662" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="3"/>
-      <c r="B662" s="4"/>
+      <c r="B662" s="5"/>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
@@ -51956,7 +51604,7 @@
     </row>
     <row r="663" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="3"/>
-      <c r="B663" s="4"/>
+      <c r="B663" s="5"/>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
@@ -52024,7 +51672,7 @@
     </row>
     <row r="664" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="3"/>
-      <c r="B664" s="4"/>
+      <c r="B664" s="5"/>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
@@ -52092,7 +51740,7 @@
     </row>
     <row r="665" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="3"/>
-      <c r="B665" s="4"/>
+      <c r="B665" s="5"/>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
@@ -52160,7 +51808,7 @@
     </row>
     <row r="666" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="3"/>
-      <c r="B666" s="4"/>
+      <c r="B666" s="5"/>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
@@ -52228,7 +51876,7 @@
     </row>
     <row r="667" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="3"/>
-      <c r="B667" s="4"/>
+      <c r="B667" s="5"/>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
@@ -52296,7 +51944,7 @@
     </row>
     <row r="668" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="3"/>
-      <c r="B668" s="4"/>
+      <c r="B668" s="5"/>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
@@ -52364,7 +52012,7 @@
     </row>
     <row r="669" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="3"/>
-      <c r="B669" s="4"/>
+      <c r="B669" s="5"/>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
@@ -52432,7 +52080,7 @@
     </row>
     <row r="670" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="3"/>
-      <c r="B670" s="4"/>
+      <c r="B670" s="5"/>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
@@ -52500,7 +52148,7 @@
     </row>
     <row r="671" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="3"/>
-      <c r="B671" s="4"/>
+      <c r="B671" s="5"/>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
@@ -52568,7 +52216,7 @@
     </row>
     <row r="672" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="3"/>
-      <c r="B672" s="4"/>
+      <c r="B672" s="5"/>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
@@ -52636,7 +52284,7 @@
     </row>
     <row r="673" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="3"/>
-      <c r="B673" s="4"/>
+      <c r="B673" s="5"/>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
@@ -52704,7 +52352,7 @@
     </row>
     <row r="674" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="3"/>
-      <c r="B674" s="4"/>
+      <c r="B674" s="5"/>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
@@ -52772,7 +52420,7 @@
     </row>
     <row r="675" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="3"/>
-      <c r="B675" s="4"/>
+      <c r="B675" s="5"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
@@ -52840,7 +52488,7 @@
     </row>
     <row r="676" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="3"/>
-      <c r="B676" s="4"/>
+      <c r="B676" s="5"/>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
@@ -52908,7 +52556,7 @@
     </row>
     <row r="677" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="3"/>
-      <c r="B677" s="4"/>
+      <c r="B677" s="5"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
@@ -52976,7 +52624,7 @@
     </row>
     <row r="678" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="3"/>
-      <c r="B678" s="4"/>
+      <c r="B678" s="5"/>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
@@ -53044,7 +52692,7 @@
     </row>
     <row r="679" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="3"/>
-      <c r="B679" s="4"/>
+      <c r="B679" s="5"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
@@ -53112,7 +52760,7 @@
     </row>
     <row r="680" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="3"/>
-      <c r="B680" s="4"/>
+      <c r="B680" s="5"/>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
@@ -53180,7 +52828,7 @@
     </row>
     <row r="681" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="3"/>
-      <c r="B681" s="4"/>
+      <c r="B681" s="5"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
@@ -53242,7 +52890,7 @@
     </row>
     <row r="682" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="3"/>
-      <c r="B682" s="4"/>
+      <c r="B682" s="5"/>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
@@ -53304,7 +52952,7 @@
     </row>
     <row r="683" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="3"/>
-      <c r="B683" s="4"/>
+      <c r="B683" s="5"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
@@ -53366,7 +53014,7 @@
     </row>
     <row r="684" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="3"/>
-      <c r="B684" s="4"/>
+      <c r="B684" s="5"/>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
@@ -53428,7 +53076,7 @@
     </row>
     <row r="685" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="3"/>
-      <c r="B685" s="4"/>
+      <c r="B685" s="5"/>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
@@ -53490,7 +53138,7 @@
     </row>
     <row r="686" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="3"/>
-      <c r="B686" s="4"/>
+      <c r="B686" s="5"/>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
@@ -53552,7 +53200,7 @@
     </row>
     <row r="687" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="3"/>
-      <c r="B687" s="4"/>
+      <c r="B687" s="5"/>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
@@ -53614,7 +53262,7 @@
     </row>
     <row r="688" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="3"/>
-      <c r="B688" s="4"/>
+      <c r="B688" s="5"/>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
@@ -53676,7 +53324,7 @@
     </row>
     <row r="689" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="3"/>
-      <c r="B689" s="4"/>
+      <c r="B689" s="5"/>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
@@ -53738,7 +53386,7 @@
     </row>
     <row r="690" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="3"/>
-      <c r="B690" s="4"/>
+      <c r="B690" s="5"/>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
@@ -53800,7 +53448,7 @@
     </row>
     <row r="691" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="3"/>
-      <c r="B691" s="4"/>
+      <c r="B691" s="5"/>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
@@ -53862,7 +53510,7 @@
     </row>
     <row r="692" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="3"/>
-      <c r="B692" s="4"/>
+      <c r="B692" s="5"/>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
@@ -53924,7 +53572,7 @@
     </row>
     <row r="693" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="3"/>
-      <c r="B693" s="4"/>
+      <c r="B693" s="5"/>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
@@ -53986,7 +53634,7 @@
     </row>
     <row r="694" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="3"/>
-      <c r="B694" s="4"/>
+      <c r="B694" s="5"/>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
@@ -54048,7 +53696,7 @@
     </row>
     <row r="695" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="3"/>
-      <c r="B695" s="4"/>
+      <c r="B695" s="5"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
@@ -54110,7 +53758,7 @@
     </row>
     <row r="696" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="3"/>
-      <c r="B696" s="4"/>
+      <c r="B696" s="5"/>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
@@ -54172,7 +53820,7 @@
     </row>
     <row r="697" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="3"/>
-      <c r="B697" s="4"/>
+      <c r="B697" s="5"/>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
@@ -54234,7 +53882,7 @@
     </row>
     <row r="698" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="3"/>
-      <c r="B698" s="4"/>
+      <c r="B698" s="5"/>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
@@ -54296,7 +53944,7 @@
     </row>
     <row r="699" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="3"/>
-      <c r="B699" s="4"/>
+      <c r="B699" s="5"/>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
@@ -54358,7 +54006,7 @@
     </row>
     <row r="700" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="3"/>
-      <c r="B700" s="4"/>
+      <c r="B700" s="5"/>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
@@ -54420,7 +54068,7 @@
     </row>
     <row r="701" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="3"/>
-      <c r="B701" s="4"/>
+      <c r="B701" s="5"/>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
@@ -54482,7 +54130,7 @@
     </row>
     <row r="702" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="3"/>
-      <c r="B702" s="4"/>
+      <c r="B702" s="5"/>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
@@ -54544,7 +54192,7 @@
     </row>
     <row r="703" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="3"/>
-      <c r="B703" s="4"/>
+      <c r="B703" s="5"/>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
@@ -54606,7 +54254,7 @@
     </row>
     <row r="704" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="3"/>
-      <c r="B704" s="4"/>
+      <c r="B704" s="5"/>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
@@ -54668,7 +54316,7 @@
     </row>
     <row r="705" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="3"/>
-      <c r="B705" s="4"/>
+      <c r="B705" s="5"/>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
@@ -54730,7 +54378,7 @@
     </row>
     <row r="706" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="3"/>
-      <c r="B706" s="4"/>
+      <c r="B706" s="5"/>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
@@ -54792,7 +54440,7 @@
     </row>
     <row r="707" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="3"/>
-      <c r="B707" s="4"/>
+      <c r="B707" s="5"/>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
@@ -54854,7 +54502,7 @@
     </row>
     <row r="708" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="3"/>
-      <c r="B708" s="4"/>
+      <c r="B708" s="5"/>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
@@ -54916,7 +54564,7 @@
     </row>
     <row r="709" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="3"/>
-      <c r="B709" s="4"/>
+      <c r="B709" s="5"/>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
@@ -54978,7 +54626,7 @@
     </row>
     <row r="710" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="3"/>
-      <c r="B710" s="4"/>
+      <c r="B710" s="5"/>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
@@ -55040,7 +54688,7 @@
     </row>
     <row r="711" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="3"/>
-      <c r="B711" s="4"/>
+      <c r="B711" s="5"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
@@ -55102,7 +54750,7 @@
     </row>
     <row r="712" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="3"/>
-      <c r="B712" s="4"/>
+      <c r="B712" s="5"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
@@ -55164,7 +54812,7 @@
     </row>
     <row r="713" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="3"/>
-      <c r="B713" s="4"/>
+      <c r="B713" s="5"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
@@ -55226,7 +54874,7 @@
     </row>
     <row r="714" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="3"/>
-      <c r="B714" s="4"/>
+      <c r="B714" s="5"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
@@ -55288,7 +54936,7 @@
     </row>
     <row r="715" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="3"/>
-      <c r="B715" s="4"/>
+      <c r="B715" s="5"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
@@ -55350,7 +54998,7 @@
     </row>
     <row r="716" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="3"/>
-      <c r="B716" s="4"/>
+      <c r="B716" s="5"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
@@ -55412,7 +55060,7 @@
     </row>
     <row r="717" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="3"/>
-      <c r="B717" s="4"/>
+      <c r="B717" s="5"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
@@ -55474,7 +55122,7 @@
     </row>
     <row r="718" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="3"/>
-      <c r="B718" s="4"/>
+      <c r="B718" s="5"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
@@ -55536,7 +55184,7 @@
     </row>
     <row r="719" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="3"/>
-      <c r="B719" s="4"/>
+      <c r="B719" s="5"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
@@ -55598,7 +55246,7 @@
     </row>
     <row r="720" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="3"/>
-      <c r="B720" s="4"/>
+      <c r="B720" s="5"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
@@ -55660,7 +55308,7 @@
     </row>
     <row r="721" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="3"/>
-      <c r="B721" s="4"/>
+      <c r="B721" s="5"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
@@ -55722,7 +55370,7 @@
     </row>
     <row r="722" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="3"/>
-      <c r="B722" s="4"/>
+      <c r="B722" s="5"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
@@ -55784,7 +55432,7 @@
     </row>
     <row r="723" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="3"/>
-      <c r="B723" s="4"/>
+      <c r="B723" s="5"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
@@ -55846,7 +55494,7 @@
     </row>
     <row r="724" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="3"/>
-      <c r="B724" s="4"/>
+      <c r="B724" s="5"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
@@ -55908,7 +55556,7 @@
     </row>
     <row r="725" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="3"/>
-      <c r="B725" s="4"/>
+      <c r="B725" s="5"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
@@ -55970,7 +55618,7 @@
     </row>
     <row r="726" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="3"/>
-      <c r="B726" s="4"/>
+      <c r="B726" s="5"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
@@ -56032,7 +55680,7 @@
     </row>
     <row r="727" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="3"/>
-      <c r="B727" s="4"/>
+      <c r="B727" s="5"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
@@ -56094,7 +55742,7 @@
     </row>
     <row r="728" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="3"/>
-      <c r="B728" s="4"/>
+      <c r="B728" s="5"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
@@ -56156,7 +55804,7 @@
     </row>
     <row r="729" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="3"/>
-      <c r="B729" s="4"/>
+      <c r="B729" s="5"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
@@ -56218,7 +55866,7 @@
     </row>
     <row r="730" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="3"/>
-      <c r="B730" s="4"/>
+      <c r="B730" s="5"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
@@ -56280,7 +55928,7 @@
     </row>
     <row r="731" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="3"/>
-      <c r="B731" s="4"/>
+      <c r="B731" s="5"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
@@ -56342,7 +55990,7 @@
     </row>
     <row r="732" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="3"/>
-      <c r="B732" s="4"/>
+      <c r="B732" s="5"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
@@ -56404,7 +56052,7 @@
     </row>
     <row r="733" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="3"/>
-      <c r="B733" s="4"/>
+      <c r="B733" s="5"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
@@ -56466,7 +56114,7 @@
     </row>
     <row r="734" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="3"/>
-      <c r="B734" s="4"/>
+      <c r="B734" s="5"/>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
@@ -56528,7 +56176,7 @@
     </row>
     <row r="735" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="3"/>
-      <c r="B735" s="4"/>
+      <c r="B735" s="5"/>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
@@ -56590,7 +56238,7 @@
     </row>
     <row r="736" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="3"/>
-      <c r="B736" s="4"/>
+      <c r="B736" s="5"/>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
@@ -56652,7 +56300,7 @@
     </row>
     <row r="737" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="3"/>
-      <c r="B737" s="4"/>
+      <c r="B737" s="5"/>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
@@ -56714,7 +56362,7 @@
     </row>
     <row r="738" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="3"/>
-      <c r="B738" s="4"/>
+      <c r="B738" s="5"/>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
